--- a/backend/src/excel_handler/files/ALUA.xlsx
+++ b/backend/src/excel_handler/files/ALUA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>16-12-2022</t>
+          <t>30-12-2022</t>
         </is>
       </c>
     </row>
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12213095.02</v>
+        <v>20699673.49</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>436181.96</v>
+        <v>440418.58</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1011855.06</v>
+        <v>884895.78</v>
       </c>
     </row>
     <row r="5">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>287209.08</v>
+        <v>287237.99</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1084410.59</v>
+        <v>1000880.85</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>745109.92</v>
+        <v>721173.51</v>
       </c>
     </row>
     <row r="8">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1806310.71</v>
+        <v>1807049.63</v>
       </c>
     </row>
     <row r="9">
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>759804.26</v>
+        <v>759848.4300000001</v>
       </c>
     </row>
     <row r="10">
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>671606.0699999999</v>
+        <v>602931.25</v>
       </c>
     </row>
     <row r="11">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>214967.87</v>
+        <v>214906.65</v>
       </c>
     </row>
     <row r="12">
@@ -547,7 +547,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>360310.62</v>
+        <v>330894.84</v>
       </c>
     </row>
     <row r="13">
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>614553.3100000001</v>
+        <v>600096.21</v>
       </c>
     </row>
     <row r="14">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>319928.44</v>
+        <v>319973.88</v>
       </c>
     </row>
     <row r="15">
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1059721.84</v>
+        <v>1061097.51</v>
       </c>
     </row>
     <row r="16">
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>229920.95</v>
+        <v>229723.73</v>
       </c>
     </row>
     <row r="17">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>565792.27</v>
+        <v>554731.63</v>
       </c>
     </row>
     <row r="18">
@@ -607,7 +607,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>601466.6800000001</v>
+        <v>563719.5600000001</v>
       </c>
     </row>
     <row r="19">
@@ -617,7 +617,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>221196.59</v>
+        <v>220951.45</v>
       </c>
     </row>
     <row r="20">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>398847.74</v>
+        <v>399117.67</v>
       </c>
     </row>
     <row r="21">
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>114553.32</v>
+        <v>114479.06</v>
       </c>
     </row>
     <row r="22">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>101441.35</v>
+        <v>114913.55</v>
       </c>
     </row>
     <row r="23">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>212831.38</v>
+        <v>212542.55</v>
       </c>
     </row>
     <row r="24">
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>182626.42</v>
+        <v>142617.62</v>
       </c>
     </row>
     <row r="25">
@@ -677,7 +677,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>225987.18</v>
+        <v>226189.73</v>
       </c>
     </row>
     <row r="26">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>105448.27</v>
+        <v>105568.49</v>
       </c>
     </row>
     <row r="27">
@@ -697,7 +697,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>35556.03</v>
+        <v>35559.82</v>
       </c>
     </row>
     <row r="28">
@@ -707,7 +707,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>96099.53</v>
+        <v>96211.60000000001</v>
       </c>
     </row>
     <row r="29">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>69653.36</v>
+        <v>69671.78</v>
       </c>
     </row>
     <row r="30">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>16462.83</v>
+        <v>16460.65</v>
       </c>
     </row>
     <row r="31">
@@ -737,7 +737,197 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>99423.35000000001</v>
+        <v>99344.25</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>CMA acciones</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>196668.34</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>Delta acciones</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>57477.74</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>Delta inter</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>16008.28</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>Delta Latam</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>29734.77</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Delta Select</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>479946.4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>Lombardi</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>105583.26</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>MAF</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>248795.68</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Superfondo </t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>156011.09</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Alpha planeam equil</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>21652.15</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>Alpha renta balan global</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>944034.59</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>Toronto trust Argy</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>189479.73</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>Arpenta ex Mercosur</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>13389.18</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>Supergestion</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>319502.05</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>Arpenta acciones</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>8193.950000000001</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>Compass Crecim</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>2062380.18</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>Goal acciones plus</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>24497.03</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>Ieb Value</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>16460.65</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>Schroeder RV</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>2505305.54</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>Supefondo RV</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>1511763.21</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/ALUA.xlsx
+++ b/backend/src/excel_handler/files/ALUA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,495 +439,658 @@
           <t>30-12-2022</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>06-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>1810 Renta variable</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>20699673.49</v>
+        <v>226189.73</v>
+      </c>
+      <c r="C2" t="n">
+        <v>226089.51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>1822 Raices Valores Negociables</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>440418.58</v>
+        <v>884895.78</v>
+      </c>
+      <c r="C3" t="n">
+        <v>879586.27</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>1822 Raices Valores Negociables</t>
+          <t>Adcap</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>884895.78</v>
+        <v>105568.49</v>
+      </c>
+      <c r="C4" t="n">
+        <v>105473.76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Allaria Acciones</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>287237.99</v>
+        <v>212542.55</v>
+      </c>
+      <c r="C5" t="n">
+        <v>235786.46</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1000880.85</v>
+        <v>287237.99</v>
+      </c>
+      <c r="C6" t="n">
+        <v>286942.29</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Balanz</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>721173.51</v>
+        <v>1000880.85</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1001323.34</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Acciones Argentina</t>
+          <t>Alpha planeam equil</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1807049.63</v>
+        <v>21652.15</v>
+      </c>
+      <c r="C8" t="n">
+        <v>21616.12</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Renta Variable</t>
+          <t>Alpha renta balan global</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>759848.4300000001</v>
+        <v>944034.59</v>
+      </c>
+      <c r="C9" t="n">
+        <v>944897.53</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Argenfunds</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>602931.25</v>
+        <v>35559.82</v>
+      </c>
+      <c r="C10" t="n">
+        <v>35514.84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Arpenta acciones</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>214906.65</v>
+        <v>8193.950000000001</v>
+      </c>
+      <c r="C11" t="n">
+        <v>8193.27</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Arpenta ex Mercosur</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>330894.84</v>
+        <v>13389.18</v>
+      </c>
+      <c r="C12" t="n">
+        <v>13408.81</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>Balanz</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>600096.21</v>
+        <v>721173.51</v>
+      </c>
+      <c r="C13" t="n">
+        <v>699372.66</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Quinquela Acciones</t>
+          <t>CMA acciones</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>319973.88</v>
+        <v>196668.34</v>
+      </c>
+      <c r="C14" t="n">
+        <v>196743.44</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>SBS Acciones Argentina</t>
+          <t>Compass Crecim</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1061097.51</v>
+        <v>2062380.18</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2044193.98</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t>Consultatio Acciones Argentina</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>229723.73</v>
+        <v>1807049.63</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1806775.34</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
+          <t>Consultatio Renta Variable</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>554731.63</v>
+        <v>759848.4300000001</v>
+      </c>
+      <c r="C17" t="n">
+        <v>759610.45</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>Delta Latam</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>563719.5600000001</v>
+        <v>29734.77</v>
+      </c>
+      <c r="C18" t="n">
+        <v>29750.4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>220951.45</v>
+        <v>479946.4</v>
+      </c>
+      <c r="C19" t="n">
+        <v>477784.31</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>Delta acciones</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>399117.67</v>
+        <v>57477.74</v>
+      </c>
+      <c r="C20" t="n">
+        <v>57514.45</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>Delta inter</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>114479.06</v>
+        <v>16008.28</v>
+      </c>
+      <c r="C21" t="n">
+        <v>15998.35</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>IAM Renta Variable</t>
+          <t>FBA Acciones Argentinas</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>114913.55</v>
+        <v>554731.63</v>
+      </c>
+      <c r="C22" t="n">
+        <v>611641.45</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Allaria Acciones</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>212542.55</v>
+        <v>563719.5600000001</v>
+      </c>
+      <c r="C23" t="n">
+        <v>601642.11</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>142617.62</v>
+        <v>602931.25</v>
+      </c>
+      <c r="C24" t="n">
+        <v>613831.85</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>1810 Renta variable</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>226189.73</v>
+        <v>214906.65</v>
+      </c>
+      <c r="C25" t="n">
+        <v>215635.15</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Adcap</t>
+          <t>Gainvest</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>105568.49</v>
+        <v>96211.60000000001</v>
+      </c>
+      <c r="C26" t="n">
+        <v>95932.97</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Argenfunds</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>35559.82</v>
+          <t>Galileo</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="n">
+        <v>1943145.83</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Gainvest</t>
+          <t>Goal</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>96211.60000000001</v>
+        <v>69671.78</v>
+      </c>
+      <c r="C28" t="n">
+        <v>69522.91</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Goal</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>69671.78</v>
+        <v>24497.03</v>
+      </c>
+      <c r="C29" t="n">
+        <v>24510.69</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>IEB</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>16460.65</v>
+        <v>330894.84</v>
+      </c>
+      <c r="C30" t="n">
+        <v>330422.7</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Megainver</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>99344.25</v>
+        <v>600096.21</v>
+      </c>
+      <c r="C31" t="n">
+        <v>584953.8</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>CMA acciones</t>
+          <t>IAM Renta Variable</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>196668.34</v>
+        <v>114913.55</v>
+      </c>
+      <c r="C32" t="n">
+        <v>114976.16</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Delta acciones</t>
+          <t>IEB</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>57477.74</v>
+        <v>16460.65</v>
+      </c>
+      <c r="C33" t="n">
+        <v>22658.35</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Delta inter</t>
+          <t>Ieb Value</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>16008.28</v>
+        <v>16460.65</v>
+      </c>
+      <c r="C34" t="n">
+        <v>22658.35</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Delta Latam</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>29734.77</v>
+        <v>105583.26</v>
+      </c>
+      <c r="C35" t="n">
+        <v>105680.69</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>479946.4</v>
+        <v>248795.68</v>
+      </c>
+      <c r="C36" t="n">
+        <v>248774.94</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>Megainver</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>105583.26</v>
+        <v>99344.25</v>
+      </c>
+      <c r="C37" t="n">
+        <v>99369.00999999999</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>248795.68</v>
+        <v>220951.45</v>
+      </c>
+      <c r="C38" t="n">
+        <v>220924.8</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>156011.09</v>
+        <v>399117.67</v>
+      </c>
+      <c r="C39" t="n">
+        <v>399231.85</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Alpha planeam equil</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>21652.15</v>
+        <v>142617.62</v>
+      </c>
+      <c r="C40" t="n">
+        <v>142507.79</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Alpha renta balan global</t>
+          <t>Quinquela Acciones</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>944034.59</v>
+        <v>319973.88</v>
+      </c>
+      <c r="C41" t="n">
+        <v>320189.3</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Toronto trust Argy</t>
+          <t>Rofex 20 Renta Variable</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>189479.73</v>
+        <v>229723.73</v>
+      </c>
+      <c r="C42" t="n">
+        <v>229972.21</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Arpenta ex Mercosur</t>
+          <t>SBS Acciones Argentina</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>13389.18</v>
+        <v>1061097.51</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1061365.07</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Supergestion</t>
+          <t>Schroeder RV</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>319502.05</v>
+        <v>2505305.54</v>
+      </c>
+      <c r="C44" t="n">
+        <v>2507588.44</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Arpenta acciones</t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>8193.950000000001</v>
+        <v>1511763.21</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1507953.08</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Compass Crecim</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2062380.18</v>
+        <v>156011.09</v>
+      </c>
+      <c r="C46" t="n">
+        <v>154579.37</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>Supergestion</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>24497.03</v>
+        <v>319502.05</v>
+      </c>
+      <c r="C47" t="n">
+        <v>319272.67</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Ieb Value</t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>16460.65</v>
+        <v>114479.06</v>
+      </c>
+      <c r="C48" t="n">
+        <v>114607.64</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Schroeder RV</t>
+          <t>Toronto trust Argy</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>2505305.54</v>
+        <v>189479.73</v>
+      </c>
+      <c r="C49" t="n">
+        <v>189731.39</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1511763.21</v>
+        <v>440418.58</v>
+      </c>
+      <c r="C50" t="n">
+        <v>473330.34</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>20699673.49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>22719856.15</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/ALUA.xlsx
+++ b/backend/src/excel_handler/files/ALUA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,515 +439,673 @@
           <t>06-01-2023</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>1810 Renta variable</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>24052322.06</v>
+        <v>226089.51</v>
+      </c>
+      <c r="C2" t="n">
+        <v>345962.63</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>1822 Raices Valores Negociables</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>490863.72</v>
+        <v>879586.27</v>
+      </c>
+      <c r="C3" t="n">
+        <v>879676.12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>1810 Renta variable</t>
+          <t>Adcap IOL Acciones Argentina</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>226089.51</v>
+        <v>105473.76</v>
+      </c>
+      <c r="C4" t="n">
+        <v>105611.31</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>1822 Raices Valores Negociables</t>
+          <t>Allaria Acciones</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>879586.27</v>
+        <v>235786.46</v>
+      </c>
+      <c r="C5" t="n">
+        <v>235983.86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Adcap IOL Acciones Argentina</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>105473.76</v>
+        <v>286942.29</v>
+      </c>
+      <c r="C6" t="n">
+        <v>287401.77</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Allaria Acciones</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>235786.46</v>
+        <v>1001323.34</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1001834.36</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Alpha Mercosur</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>286942.29</v>
+        <v>598915.4399999999</v>
+      </c>
+      <c r="C8" t="n">
+        <v>598348.37</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Alpha Recursos Naturales</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1001323.34</v>
+        <v>756208.8199999999</v>
+      </c>
+      <c r="C9" t="n">
+        <v>878817.86</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mercosur</t>
+          <t>Alpha planeam equil</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>598915.4399999999</v>
+        <v>21616.12</v>
+      </c>
+      <c r="C10" t="n">
+        <v>11558.68</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Alpha Recursos Naturales</t>
+          <t>Alpha renta balan global</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>756208.8199999999</v>
+        <v>944897.53</v>
+      </c>
+      <c r="C11" t="n">
+        <v>941568.24</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Alpha planeam equil</t>
+          <t>Argenfunds</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>21616.12</v>
+        <v>35514.84</v>
+      </c>
+      <c r="C12" t="n">
+        <v>35552.2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Alpha renta balan global</t>
+          <t>Arpenta acciones</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>944897.53</v>
+        <v>8193.27</v>
+      </c>
+      <c r="C13" t="n">
+        <v>8200.26</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Argenfunds</t>
+          <t>Arpenta ex Mercosur</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>35514.84</v>
+        <v>13408.81</v>
+      </c>
+      <c r="C14" t="n">
+        <v>13415.14</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Arpenta acciones</t>
+          <t>Balanz</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>8193.27</v>
+        <v>699372.66</v>
+      </c>
+      <c r="C15" t="n">
+        <v>700664.96</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Arpenta ex Mercosur</t>
+          <t>CMA acciones</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>13408.81</v>
+        <v>196743.44</v>
+      </c>
+      <c r="C16" t="n">
+        <v>196842.63</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Balanz</t>
+          <t>Compass Crecimiento</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>699372.66</v>
+        <v>2044193.98</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2035251.4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>CMA acciones</t>
+          <t>Consultatio Acciones Argentina</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>196743.44</v>
+        <v>1806775.34</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1681454.57</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Compass Crecimiento</t>
+          <t>Consultatio Renta Variable</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2044193.98</v>
+        <v>759610.45</v>
+      </c>
+      <c r="C19" t="n">
+        <v>759475.03</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Acciones Argentina</t>
+          <t>Delta Acciones</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1806775.34</v>
+        <v>57514.45</v>
+      </c>
+      <c r="C20" t="n">
+        <v>57526.56</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Renta Variable</t>
+          <t>Delta Internacional</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>759610.45</v>
+        <v>15998.35</v>
+      </c>
+      <c r="C21" t="n">
+        <v>15993.69</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Delta Acciones</t>
+          <t>Delta Latinoamerica</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>57514.45</v>
+        <v>29750.4</v>
+      </c>
+      <c r="C22" t="n">
+        <v>29730.25</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Delta Internacional</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>15998.35</v>
+        <v>477784.31</v>
+      </c>
+      <c r="C23" t="n">
+        <v>477734.94</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Delta Latinoamerica</t>
+          <t>FBA Acciones Argentinas</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>29750.4</v>
+        <v>611641.45</v>
+      </c>
+      <c r="C24" t="n">
+        <v>622384.3</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>477784.31</v>
+        <v>601642.11</v>
+      </c>
+      <c r="C25" t="n">
+        <v>613750.14</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>611641.45</v>
+        <v>613831.85</v>
+      </c>
+      <c r="C26" t="n">
+        <v>864687.73</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>601642.11</v>
+        <v>215635.15</v>
+      </c>
+      <c r="C27" t="n">
+        <v>458092.97</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Gainvest Renta Variable</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>613831.85</v>
+        <v>95932.97</v>
+      </c>
+      <c r="C28" t="n">
+        <v>95762.06</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Galileo Acciones</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>215635.15</v>
+        <v>1943145.83</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1942133.3</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Gainvest Renta Variable</t>
+          <t>Goal Acciones Argentinas</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>95932.97</v>
+        <v>69522.91</v>
+      </c>
+      <c r="C30" t="n">
+        <v>69504.27</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Galileo Acciones</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1943145.83</v>
+        <v>24510.69</v>
+      </c>
+      <c r="C31" t="n">
+        <v>24517.51</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Goal Acciones Argentinas</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>69522.91</v>
+        <v>330422.7</v>
+      </c>
+      <c r="C32" t="n">
+        <v>330584.64</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>24510.69</v>
+        <v>584953.8</v>
+      </c>
+      <c r="C33" t="n">
+        <v>563917.42</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>IAM Renta Variable</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>330422.7</v>
+        <v>114976.16</v>
+      </c>
+      <c r="C34" t="n">
+        <v>120265.95</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>IEB Value</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>584953.8</v>
+        <v>22658.35</v>
+      </c>
+      <c r="C35" t="n">
+        <v>22642.85</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>IAM Renta Variable</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>114976.16</v>
+        <v>105680.69</v>
+      </c>
+      <c r="C36" t="n">
+        <v>105793.94</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>IEB Value</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>22658.35</v>
+        <v>248774.94</v>
+      </c>
+      <c r="C37" t="n">
+        <v>248946.29</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>Megainver</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>105680.69</v>
+        <v>99369.00999999999</v>
+      </c>
+      <c r="C38" t="n">
+        <v>99476.06</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>248774.94</v>
+        <v>220924.8</v>
+      </c>
+      <c r="C39" t="n">
+        <v>221233.55</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Megainver</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>99369.00999999999</v>
+        <v>399231.85</v>
+      </c>
+      <c r="C40" t="n">
+        <v>398675.83</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>220924.8</v>
+        <v>142507.79</v>
+      </c>
+      <c r="C41" t="n">
+        <v>142655.19</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>Quinquela Acciones</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>399231.85</v>
+        <v>320189.3</v>
+      </c>
+      <c r="C42" t="n">
+        <v>319994.27</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>Rofex 20 Renta Variable</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>142507.79</v>
+        <v>229972.21</v>
+      </c>
+      <c r="C43" t="n">
+        <v>229555.44</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Quinquela Acciones</t>
+          <t>SBS Acciones Argentina</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>320189.3</v>
+        <v>1061365.07</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1061127.24</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t>Schroeder RV</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>229972.21</v>
+        <v>2507588.44</v>
+      </c>
+      <c r="C45" t="n">
+        <v>2506691.17</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>SBS Acciones Argentina</t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1061365.07</v>
+        <v>1507953.08</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1513462.28</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Schroeder RV</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2507588.44</v>
+        <v>154579.37</v>
+      </c>
+      <c r="C47" t="n">
+        <v>154269.06</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>Supergestion</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1507953.08</v>
+        <v>319272.67</v>
+      </c>
+      <c r="C48" t="n">
+        <v>320424.99</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>154579.37</v>
+        <v>114607.64</v>
+      </c>
+      <c r="C49" t="n">
+        <v>114605.83</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Supergestion</t>
+          <t>Toronto trust Argy</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>319272.67</v>
+        <v>189731.39</v>
+      </c>
+      <c r="C50" t="n">
+        <v>189512.06</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>114607.64</v>
+        <v>490863.72</v>
+      </c>
+      <c r="C51" t="n">
+        <v>503127.98</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>Toronto trust Argy</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>189731.39</v>
+        <v>24052322.06</v>
+      </c>
+      <c r="C52" t="n">
+        <v>24653271.17</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/ALUA.xlsx
+++ b/backend/src/excel_handler/files/ALUA.xlsx
@@ -662,9 +662,7 @@
       <c r="B18" t="n">
         <v>1806775.34</v>
       </c>
-      <c r="C18" t="n">
-        <v>1681454.57</v>
-      </c>
+      <c r="C18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -675,9 +673,7 @@
       <c r="B19" t="n">
         <v>759610.45</v>
       </c>
-      <c r="C19" t="n">
-        <v>759475.03</v>
-      </c>
+      <c r="C19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -688,9 +684,7 @@
       <c r="B20" t="n">
         <v>57514.45</v>
       </c>
-      <c r="C20" t="n">
-        <v>57526.56</v>
-      </c>
+      <c r="C20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -701,9 +695,7 @@
       <c r="B21" t="n">
         <v>15998.35</v>
       </c>
-      <c r="C21" t="n">
-        <v>15993.69</v>
-      </c>
+      <c r="C21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -714,9 +706,7 @@
       <c r="B22" t="n">
         <v>29750.4</v>
       </c>
-      <c r="C22" t="n">
-        <v>29730.25</v>
-      </c>
+      <c r="C22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -727,9 +717,7 @@
       <c r="B23" t="n">
         <v>477784.31</v>
       </c>
-      <c r="C23" t="n">
-        <v>477734.94</v>
-      </c>
+      <c r="C23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -740,9 +728,7 @@
       <c r="B24" t="n">
         <v>611641.45</v>
       </c>
-      <c r="C24" t="n">
-        <v>622384.3</v>
-      </c>
+      <c r="C24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -753,9 +739,7 @@
       <c r="B25" t="n">
         <v>601642.11</v>
       </c>
-      <c r="C25" t="n">
-        <v>613750.14</v>
-      </c>
+      <c r="C25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -766,9 +750,7 @@
       <c r="B26" t="n">
         <v>613831.85</v>
       </c>
-      <c r="C26" t="n">
-        <v>864687.73</v>
-      </c>
+      <c r="C26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -935,9 +917,7 @@
       <c r="B39" t="n">
         <v>220924.8</v>
       </c>
-      <c r="C39" t="n">
-        <v>221233.55</v>
-      </c>
+      <c r="C39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1092,7 +1072,7 @@
         <v>490863.72</v>
       </c>
       <c r="C51" t="n">
-        <v>503127.98</v>
+        <v>495110.27</v>
       </c>
     </row>
     <row r="52">
@@ -1105,7 +1085,7 @@
         <v>24052322.06</v>
       </c>
       <c r="C52" t="n">
-        <v>24653271.17</v>
+        <v>19309300.41</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/ALUA.xlsx
+++ b/backend/src/excel_handler/files/ALUA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:M52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,32 +436,62 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>06-01-2023</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>20-01-2023</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>27-01-2023</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>03-02-2023</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>10-02-2023</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>17-02-2023</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>24-02-2023</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>03-03-2023</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>10-03-2023</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>17-03-2023</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>23-03-2023</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>31-03-2023</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>05-04-2023</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>14-04-2023</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>21-04-2023</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>28-04-2023</t>
         </is>
       </c>
     </row>
@@ -472,22 +502,40 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>226089.51</v>
+      </c>
+      <c r="C2" t="n">
+        <v>345962.63</v>
+      </c>
+      <c r="D2" t="n">
+        <v>437008.75</v>
+      </c>
+      <c r="E2" t="n">
+        <v>437154.48</v>
+      </c>
+      <c r="F2" t="n">
+        <v>436812.01</v>
+      </c>
+      <c r="G2" t="n">
+        <v>437305.77</v>
+      </c>
+      <c r="H2" t="n">
+        <v>388362.29</v>
+      </c>
+      <c r="I2" t="n">
+        <v>338435.95</v>
+      </c>
+      <c r="J2" t="n">
+        <v>338789.98</v>
+      </c>
+      <c r="K2" t="n">
+        <v>338230.79</v>
+      </c>
+      <c r="L2" t="n">
+        <v>292417.02</v>
+      </c>
+      <c r="M2" t="n">
         <v>292590.22</v>
-      </c>
-      <c r="C2" t="n">
-        <v>292446.82</v>
-      </c>
-      <c r="D2" t="n">
-        <v>306064.16</v>
-      </c>
-      <c r="E2" t="n">
-        <v>292315.37</v>
-      </c>
-      <c r="F2" t="n">
-        <v>310964.96</v>
-      </c>
-      <c r="G2" t="n">
-        <v>310665.14</v>
       </c>
     </row>
     <row r="3">
@@ -497,22 +545,40 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>879586.27</v>
+      </c>
+      <c r="C3" t="n">
+        <v>879676.12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>922500.4399999999</v>
+      </c>
+      <c r="E3" t="n">
+        <v>953688.5600000001</v>
+      </c>
+      <c r="F3" t="n">
+        <v>952976.5600000001</v>
+      </c>
+      <c r="G3" t="n">
+        <v>954028.14</v>
+      </c>
+      <c r="H3" t="n">
+        <v>910147.72</v>
+      </c>
+      <c r="I3" t="n">
+        <v>909695.97</v>
+      </c>
+      <c r="J3" t="n">
+        <v>909206.85</v>
+      </c>
+      <c r="K3" t="n">
+        <v>937850.71</v>
+      </c>
+      <c r="L3" t="n">
+        <v>909061.5</v>
+      </c>
+      <c r="M3" t="n">
         <v>957849.0600000001</v>
-      </c>
-      <c r="C3" t="n">
-        <v>956522.48</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1000797.42</v>
-      </c>
-      <c r="E3" t="n">
-        <v>958057.7</v>
-      </c>
-      <c r="F3" t="n">
-        <v>957129.38</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1023782.09</v>
       </c>
     </row>
     <row r="4">
@@ -522,22 +588,40 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>105473.76</v>
+      </c>
+      <c r="C4" t="n">
+        <v>105611.31</v>
+      </c>
+      <c r="D4" t="n">
+        <v>105323.75</v>
+      </c>
+      <c r="E4" t="n">
+        <v>120495.71</v>
+      </c>
+      <c r="F4" t="n">
+        <v>120575.02</v>
+      </c>
+      <c r="G4" t="n">
+        <v>120532.19</v>
+      </c>
+      <c r="H4" t="n">
+        <v>120676.63</v>
+      </c>
+      <c r="I4" t="n">
+        <v>120460.69</v>
+      </c>
+      <c r="J4" t="n">
+        <v>120643.75</v>
+      </c>
+      <c r="K4" t="n">
+        <v>120517.69</v>
+      </c>
+      <c r="L4" t="n">
+        <v>120585.9</v>
+      </c>
+      <c r="M4" t="n">
         <v>120514.15</v>
-      </c>
-      <c r="C4" t="n">
-        <v>120564.64</v>
-      </c>
-      <c r="D4" t="n">
-        <v>125770.89</v>
-      </c>
-      <c r="E4" t="n">
-        <v>120388.13</v>
-      </c>
-      <c r="F4" t="n">
-        <v>120504.31</v>
-      </c>
-      <c r="G4" t="n">
-        <v>152714.09</v>
       </c>
     </row>
     <row r="5">
@@ -547,22 +631,40 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>235786.46</v>
+      </c>
+      <c r="C5" t="n">
+        <v>235983.86</v>
+      </c>
+      <c r="D5" t="n">
+        <v>235757.55</v>
+      </c>
+      <c r="E5" t="n">
+        <v>235932.29</v>
+      </c>
+      <c r="F5" t="n">
+        <v>235968.98</v>
+      </c>
+      <c r="G5" t="n">
+        <v>235721.39</v>
+      </c>
+      <c r="H5" t="n">
+        <v>236094.3</v>
+      </c>
+      <c r="I5" t="n">
+        <v>235899.83</v>
+      </c>
+      <c r="J5" t="n">
+        <v>236040.51</v>
+      </c>
+      <c r="K5" t="n">
+        <v>235782.07</v>
+      </c>
+      <c r="L5" t="n">
+        <v>235707.26</v>
+      </c>
+      <c r="M5" t="n">
         <v>235789.5</v>
-      </c>
-      <c r="C5" t="n">
-        <v>249016.86</v>
-      </c>
-      <c r="D5" t="n">
-        <v>260460.05</v>
-      </c>
-      <c r="E5" t="n">
-        <v>249306.12</v>
-      </c>
-      <c r="F5" t="n">
-        <v>191872.21</v>
-      </c>
-      <c r="G5" t="n">
-        <v>171080.64</v>
       </c>
     </row>
     <row r="6">
@@ -572,22 +674,40 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>286942.29</v>
+      </c>
+      <c r="C6" t="n">
+        <v>287401.77</v>
+      </c>
+      <c r="D6" t="n">
+        <v>331696.65</v>
+      </c>
+      <c r="E6" t="n">
+        <v>331145.03</v>
+      </c>
+      <c r="F6" t="n">
+        <v>331538.5</v>
+      </c>
+      <c r="G6" t="n">
+        <v>331553.43</v>
+      </c>
+      <c r="H6" t="n">
+        <v>331327.17</v>
+      </c>
+      <c r="I6" t="n">
+        <v>330750.65</v>
+      </c>
+      <c r="J6" t="n">
+        <v>331538.82</v>
+      </c>
+      <c r="K6" t="n">
+        <v>225380.98</v>
+      </c>
+      <c r="L6" t="n">
+        <v>226153.56</v>
+      </c>
+      <c r="M6" t="n">
         <v>225820.95</v>
-      </c>
-      <c r="C6" t="n">
-        <v>225677.29</v>
-      </c>
-      <c r="D6" t="n">
-        <v>235562.76</v>
-      </c>
-      <c r="E6" t="n">
-        <v>225363.47</v>
-      </c>
-      <c r="F6" t="n">
-        <v>225514.02</v>
-      </c>
-      <c r="G6" t="n">
-        <v>226020.7</v>
       </c>
     </row>
     <row r="7">
@@ -597,22 +717,40 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>1001323.34</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1001834.36</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1002487.38</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1001631.2</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1002417.53</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1001536.55</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1001492.73</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1002100.82</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1002119.32</v>
+      </c>
+      <c r="K7" t="n">
+        <v>699870.52</v>
+      </c>
+      <c r="L7" t="n">
+        <v>572824.17</v>
+      </c>
+      <c r="M7" t="n">
         <v>571523.55</v>
-      </c>
-      <c r="C7" t="n">
-        <v>571967.53</v>
-      </c>
-      <c r="D7" t="n">
-        <v>597764.9300000001</v>
-      </c>
-      <c r="E7" t="n">
-        <v>572183.0699999999</v>
-      </c>
-      <c r="F7" t="n">
-        <v>571314.96</v>
-      </c>
-      <c r="G7" t="n">
-        <v>572005.1899999999</v>
       </c>
     </row>
     <row r="8">
@@ -622,22 +760,40 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>598915.4399999999</v>
+      </c>
+      <c r="C8" t="n">
+        <v>598348.37</v>
+      </c>
+      <c r="D8" t="n">
+        <v>598832.55</v>
+      </c>
+      <c r="E8" t="n">
+        <v>598767.6899999999</v>
+      </c>
+      <c r="F8" t="n">
+        <v>598220.63</v>
+      </c>
+      <c r="G8" t="n">
+        <v>599005.26</v>
+      </c>
+      <c r="H8" t="n">
+        <v>598750.75</v>
+      </c>
+      <c r="I8" t="n">
+        <v>599119.8199999999</v>
+      </c>
+      <c r="J8" t="n">
+        <v>598299.92</v>
+      </c>
+      <c r="K8" t="n">
+        <v>599069.76</v>
+      </c>
+      <c r="L8" t="n">
+        <v>599094.79</v>
+      </c>
+      <c r="M8" t="n">
         <v>598753.3100000001</v>
-      </c>
-      <c r="C8" t="n">
-        <v>598981.95</v>
-      </c>
-      <c r="D8" t="n">
-        <v>626032.38</v>
-      </c>
-      <c r="E8" t="n">
-        <v>598316.13</v>
-      </c>
-      <c r="F8" t="n">
-        <v>598175.01</v>
-      </c>
-      <c r="G8" t="n">
-        <v>598926.5699999999</v>
       </c>
     </row>
     <row r="9">
@@ -647,22 +803,40 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>756208.8199999999</v>
+      </c>
+      <c r="C9" t="n">
+        <v>878817.86</v>
+      </c>
+      <c r="D9" t="n">
+        <v>972815.3100000001</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1044012.47</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1044101.1</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1080652.18</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1080562.59</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1080712.01</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1080742.12</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1080670.59</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1023925.12</v>
+      </c>
+      <c r="M9" t="n">
         <v>1023918.6</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1024440.02</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1070480.53</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1024006.57</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1024228.1</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1101894.64</v>
       </c>
     </row>
     <row r="10">
@@ -672,22 +846,40 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>21616.12</v>
+      </c>
+      <c r="C10" t="n">
+        <v>11558.68</v>
+      </c>
+      <c r="D10" t="n">
+        <v>11612.95</v>
+      </c>
+      <c r="E10" t="n">
+        <v>11616.22</v>
+      </c>
+      <c r="F10" t="n">
+        <v>11564.49</v>
+      </c>
+      <c r="G10" t="n">
+        <v>11549.24</v>
+      </c>
+      <c r="H10" t="n">
+        <v>11563.19</v>
+      </c>
+      <c r="I10" t="n">
+        <v>11548.23</v>
+      </c>
+      <c r="J10" t="n">
+        <v>11565.94</v>
+      </c>
+      <c r="K10" t="n">
+        <v>11589.02</v>
+      </c>
+      <c r="L10" t="n">
+        <v>11547.38</v>
+      </c>
+      <c r="M10" t="n">
         <v>11551.84</v>
-      </c>
-      <c r="C10" t="n">
-        <v>11577.77</v>
-      </c>
-      <c r="D10" t="n">
-        <v>12179.35</v>
-      </c>
-      <c r="E10" t="n">
-        <v>11636.7</v>
-      </c>
-      <c r="F10" t="n">
-        <v>11596.08</v>
-      </c>
-      <c r="G10" t="n">
-        <v>11618.8</v>
       </c>
     </row>
     <row r="11">
@@ -697,22 +889,40 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>944897.53</v>
+      </c>
+      <c r="C11" t="n">
+        <v>941568.24</v>
+      </c>
+      <c r="D11" t="n">
+        <v>942604.53</v>
+      </c>
+      <c r="E11" t="n">
+        <v>943980.7</v>
+      </c>
+      <c r="F11" t="n">
+        <v>941236.88</v>
+      </c>
+      <c r="G11" t="n">
+        <v>945207.66</v>
+      </c>
+      <c r="H11" t="n">
+        <v>942802.45</v>
+      </c>
+      <c r="I11" t="n">
+        <v>944354.47</v>
+      </c>
+      <c r="J11" t="n">
+        <v>941188.05</v>
+      </c>
+      <c r="K11" t="n">
+        <v>939496.76</v>
+      </c>
+      <c r="L11" t="n">
+        <v>943513.28</v>
+      </c>
+      <c r="M11" t="n">
         <v>943725.76</v>
-      </c>
-      <c r="C11" t="n">
-        <v>939767.42</v>
-      </c>
-      <c r="D11" t="n">
-        <v>984354.9399999999</v>
-      </c>
-      <c r="E11" t="n">
-        <v>940207.77</v>
-      </c>
-      <c r="F11" t="n">
-        <v>945226.9</v>
-      </c>
-      <c r="G11" t="n">
-        <v>943605.95</v>
       </c>
     </row>
     <row r="12">
@@ -722,22 +932,40 @@
         </is>
       </c>
       <c r="B12" t="n">
+        <v>35514.84</v>
+      </c>
+      <c r="C12" t="n">
+        <v>35552.2</v>
+      </c>
+      <c r="D12" t="n">
+        <v>35547.39</v>
+      </c>
+      <c r="E12" t="n">
+        <v>35516.83</v>
+      </c>
+      <c r="F12" t="n">
+        <v>35500.79</v>
+      </c>
+      <c r="G12" t="n">
+        <v>35420.96</v>
+      </c>
+      <c r="H12" t="n">
+        <v>35491.81</v>
+      </c>
+      <c r="I12" t="n">
+        <v>35456.13</v>
+      </c>
+      <c r="J12" t="n">
+        <v>35445.07</v>
+      </c>
+      <c r="K12" t="n">
+        <v>4210.63</v>
+      </c>
+      <c r="L12" t="n">
+        <v>4208.64</v>
+      </c>
+      <c r="M12" t="n">
         <v>4208.5</v>
-      </c>
-      <c r="C12" t="n">
-        <v>4206.91</v>
-      </c>
-      <c r="D12" t="n">
-        <v>4395.77</v>
-      </c>
-      <c r="E12" t="n">
-        <v>4207.75</v>
-      </c>
-      <c r="F12" t="n">
-        <v>4211.26</v>
-      </c>
-      <c r="G12" t="n">
-        <v>4206.61</v>
       </c>
     </row>
     <row r="13">
@@ -747,22 +975,40 @@
         </is>
       </c>
       <c r="B13" t="n">
+        <v>8193.27</v>
+      </c>
+      <c r="C13" t="n">
+        <v>8200.26</v>
+      </c>
+      <c r="D13" t="n">
+        <v>8195.85</v>
+      </c>
+      <c r="E13" t="n">
+        <v>8198.610000000001</v>
+      </c>
+      <c r="F13" t="n">
+        <v>8206.780000000001</v>
+      </c>
+      <c r="G13" t="n">
+        <v>8199.459999999999</v>
+      </c>
+      <c r="H13" t="n">
+        <v>8201.33</v>
+      </c>
+      <c r="I13" t="n">
+        <v>8206.02</v>
+      </c>
+      <c r="J13" t="n">
+        <v>8198.200000000001</v>
+      </c>
+      <c r="K13" t="n">
+        <v>8194.98</v>
+      </c>
+      <c r="L13" t="n">
+        <v>8200.540000000001</v>
+      </c>
+      <c r="M13" t="n">
         <v>8197.09</v>
-      </c>
-      <c r="C13" t="n">
-        <v>8204.559999999999</v>
-      </c>
-      <c r="D13" t="n">
-        <v>8564.84</v>
-      </c>
-      <c r="E13" t="n">
-        <v>8200.83</v>
-      </c>
-      <c r="F13" t="n">
-        <v>8195.030000000001</v>
-      </c>
-      <c r="G13" t="n">
-        <v>8204.290000000001</v>
       </c>
     </row>
     <row r="14">
@@ -772,22 +1018,40 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>13408.81</v>
+      </c>
+      <c r="C14" t="n">
+        <v>13415.14</v>
+      </c>
+      <c r="D14" t="n">
+        <v>13379.28</v>
+      </c>
+      <c r="E14" t="n">
+        <v>13447.17</v>
+      </c>
+      <c r="F14" t="n">
+        <v>13437.99</v>
+      </c>
+      <c r="G14" t="n">
+        <v>13398.86</v>
+      </c>
+      <c r="H14" t="n">
+        <v>13405.39</v>
+      </c>
+      <c r="I14" t="n">
+        <v>13441.29</v>
+      </c>
+      <c r="J14" t="n">
+        <v>13400.1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>13431.48</v>
+      </c>
+      <c r="L14" t="n">
+        <v>13400.71</v>
+      </c>
+      <c r="M14" t="n">
         <v>13447.65</v>
-      </c>
-      <c r="C14" t="n">
-        <v>13399.43</v>
-      </c>
-      <c r="D14" t="n">
-        <v>14050.47</v>
-      </c>
-      <c r="E14" t="n">
-        <v>13431.88</v>
-      </c>
-      <c r="F14" t="n">
-        <v>13420.11</v>
-      </c>
-      <c r="G14" t="n">
-        <v>13407.19</v>
       </c>
     </row>
     <row r="15">
@@ -797,22 +1061,40 @@
         </is>
       </c>
       <c r="B15" t="n">
+        <v>699372.66</v>
+      </c>
+      <c r="C15" t="n">
+        <v>700664.96</v>
+      </c>
+      <c r="D15" t="n">
+        <v>700581.14</v>
+      </c>
+      <c r="E15" t="n">
+        <v>699058.89</v>
+      </c>
+      <c r="F15" t="n">
+        <v>700041.92</v>
+      </c>
+      <c r="G15" t="n">
+        <v>738559.08</v>
+      </c>
+      <c r="H15" t="n">
+        <v>737382.9300000001</v>
+      </c>
+      <c r="I15" t="n">
+        <v>738285.42</v>
+      </c>
+      <c r="J15" t="n">
+        <v>813079.15</v>
+      </c>
+      <c r="K15" t="n">
+        <v>968114.1800000001</v>
+      </c>
+      <c r="L15" t="n">
+        <v>937824.92</v>
+      </c>
+      <c r="M15" t="n">
         <v>937629.91</v>
-      </c>
-      <c r="C15" t="n">
-        <v>965344.3100000001</v>
-      </c>
-      <c r="D15" t="n">
-        <v>967585.64</v>
-      </c>
-      <c r="E15" t="n">
-        <v>887559.6800000001</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1036957.32</v>
-      </c>
-      <c r="G15" t="n">
-        <v>934472.95</v>
       </c>
     </row>
     <row r="16">
@@ -822,22 +1104,40 @@
         </is>
       </c>
       <c r="B16" t="n">
+        <v>196743.44</v>
+      </c>
+      <c r="C16" t="n">
+        <v>196842.63</v>
+      </c>
+      <c r="D16" t="n">
+        <v>196577.99</v>
+      </c>
+      <c r="E16" t="n">
+        <v>196619.02</v>
+      </c>
+      <c r="F16" t="n">
+        <v>196591.95</v>
+      </c>
+      <c r="G16" t="n">
+        <v>196511.79</v>
+      </c>
+      <c r="H16" t="n">
+        <v>196839.24</v>
+      </c>
+      <c r="I16" t="n">
+        <v>196856.07</v>
+      </c>
+      <c r="J16" t="n">
+        <v>196875.27</v>
+      </c>
+      <c r="K16" t="n">
+        <v>196710.17</v>
+      </c>
+      <c r="L16" t="n">
+        <v>196861.91</v>
+      </c>
+      <c r="M16" t="n">
         <v>196402.57</v>
-      </c>
-      <c r="C16" t="n">
-        <v>196699.99</v>
-      </c>
-      <c r="D16" t="n">
-        <v>205613.67</v>
-      </c>
-      <c r="E16" t="n">
-        <v>196879.41</v>
-      </c>
-      <c r="F16" t="n">
-        <v>196886.18</v>
-      </c>
-      <c r="G16" t="n">
-        <v>196553.42</v>
       </c>
     </row>
     <row r="17">
@@ -847,22 +1147,40 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>2044193.98</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2035251.4</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2024747.26</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1994650.8</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1984907.08</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1974597.92</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1976807.89</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1962599.55</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1930844.13</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1927706.98</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1921574.32</v>
+      </c>
+      <c r="M17" t="n">
         <v>1917344.49</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1908811.55</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1989142.51</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1892911.07</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1877844.95</v>
-      </c>
-      <c r="G17" t="n">
-        <v>1876378.97</v>
       </c>
     </row>
     <row r="18">
@@ -872,22 +1190,38 @@
         </is>
       </c>
       <c r="B18" t="n">
+        <v>1806775.34</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="n">
+        <v>1352470.62</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1352875.94</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1352904.63</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1353842.07</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1352331.44</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1353920.21</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1353960.94</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1352943.73</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1353707.45</v>
+      </c>
+      <c r="M18" t="n">
         <v>1255595.32</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1254795.82</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1312725.29</v>
-      </c>
-      <c r="E18" t="n">
-        <v>1213606.25</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1120323.87</v>
-      </c>
-      <c r="G18" t="n">
-        <v>1120930.95</v>
       </c>
     </row>
     <row r="19">
@@ -897,22 +1231,38 @@
         </is>
       </c>
       <c r="B19" t="n">
+        <v>759610.45</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="n">
+        <v>676616.1899999999</v>
+      </c>
+      <c r="E19" t="n">
+        <v>676748.47</v>
+      </c>
+      <c r="F19" t="n">
+        <v>677091.54</v>
+      </c>
+      <c r="G19" t="n">
+        <v>676469.3</v>
+      </c>
+      <c r="H19" t="n">
+        <v>676213.22</v>
+      </c>
+      <c r="I19" t="n">
+        <v>676348.6800000001</v>
+      </c>
+      <c r="J19" t="n">
+        <v>676691.05</v>
+      </c>
+      <c r="K19" t="n">
+        <v>676193.95</v>
+      </c>
+      <c r="L19" t="n">
+        <v>676312.0699999999</v>
+      </c>
+      <c r="M19" t="n">
         <v>676835.55</v>
-      </c>
-      <c r="C19" t="n">
-        <v>566486.64</v>
-      </c>
-      <c r="D19" t="n">
-        <v>528951</v>
-      </c>
-      <c r="E19" t="n">
-        <v>403175.73</v>
-      </c>
-      <c r="F19" t="n">
-        <v>402741.43</v>
-      </c>
-      <c r="G19" t="n">
-        <v>403137.37</v>
       </c>
     </row>
     <row r="20">
@@ -922,22 +1272,38 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>57514.45</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="n">
+        <v>57498.64</v>
+      </c>
+      <c r="E20" t="n">
+        <v>57482.38</v>
+      </c>
+      <c r="F20" t="n">
+        <v>57536.32</v>
+      </c>
+      <c r="G20" t="n">
+        <v>57519.67</v>
+      </c>
+      <c r="H20" t="n">
+        <v>57666.83</v>
+      </c>
+      <c r="I20" t="n">
+        <v>57596.91</v>
+      </c>
+      <c r="J20" t="n">
+        <v>57226.31</v>
+      </c>
+      <c r="K20" t="n">
+        <v>57509.32</v>
+      </c>
+      <c r="L20" t="n">
+        <v>57291.38</v>
+      </c>
+      <c r="M20" t="n">
         <v>57520.08</v>
-      </c>
-      <c r="C20" t="n">
-        <v>57294.22</v>
-      </c>
-      <c r="D20" t="n">
-        <v>60084.52</v>
-      </c>
-      <c r="E20" t="n">
-        <v>57618.29</v>
-      </c>
-      <c r="F20" t="n">
-        <v>57520.45</v>
-      </c>
-      <c r="G20" t="n">
-        <v>57563.89</v>
       </c>
     </row>
     <row r="21">
@@ -947,22 +1313,38 @@
         </is>
       </c>
       <c r="B21" t="n">
+        <v>15998.35</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="n">
+        <v>19259.31</v>
+      </c>
+      <c r="E21" t="n">
+        <v>19247.41</v>
+      </c>
+      <c r="F21" t="n">
+        <v>19250.38</v>
+      </c>
+      <c r="G21" t="n">
+        <v>19242.33</v>
+      </c>
+      <c r="H21" t="n">
+        <v>19244.94</v>
+      </c>
+      <c r="I21" t="n">
+        <v>19266.87</v>
+      </c>
+      <c r="J21" t="n">
+        <v>19258.99</v>
+      </c>
+      <c r="K21" t="n">
+        <v>19268.35</v>
+      </c>
+      <c r="L21" t="n">
+        <v>19247.92</v>
+      </c>
+      <c r="M21" t="n">
         <v>19252.15</v>
-      </c>
-      <c r="C21" t="n">
-        <v>19261.76</v>
-      </c>
-      <c r="D21" t="n">
-        <v>20124.87</v>
-      </c>
-      <c r="E21" t="n">
-        <v>11026.13</v>
-      </c>
-      <c r="F21" t="n">
-        <v>11036.84</v>
-      </c>
-      <c r="G21" t="n">
-        <v>11027.35</v>
       </c>
     </row>
     <row r="22">
@@ -972,22 +1354,38 @@
         </is>
       </c>
       <c r="B22" t="n">
+        <v>29750.4</v>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="n">
+        <v>37876.65</v>
+      </c>
+      <c r="E22" t="n">
+        <v>37893.5</v>
+      </c>
+      <c r="F22" t="n">
+        <v>37890.91</v>
+      </c>
+      <c r="G22" t="n">
+        <v>37870.15</v>
+      </c>
+      <c r="H22" t="n">
+        <v>37900.39</v>
+      </c>
+      <c r="I22" t="n">
+        <v>37876.3</v>
+      </c>
+      <c r="J22" t="n">
+        <v>37872.42</v>
+      </c>
+      <c r="K22" t="n">
+        <v>37884.58</v>
+      </c>
+      <c r="L22" t="n">
+        <v>37877.45</v>
+      </c>
+      <c r="M22" t="n">
         <v>37888.35</v>
-      </c>
-      <c r="C22" t="n">
-        <v>37873.72</v>
-      </c>
-      <c r="D22" t="n">
-        <v>39605.94</v>
-      </c>
-      <c r="E22" t="n">
-        <v>25532.86</v>
-      </c>
-      <c r="F22" t="n">
-        <v>25528.58</v>
-      </c>
-      <c r="G22" t="n">
-        <v>25517.08</v>
       </c>
     </row>
     <row r="23">
@@ -997,22 +1395,38 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>477784.31</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="n">
+        <v>471408.99</v>
+      </c>
+      <c r="E23" t="n">
+        <v>462745.4</v>
+      </c>
+      <c r="F23" t="n">
+        <v>462549.27</v>
+      </c>
+      <c r="G23" t="n">
+        <v>464267.34</v>
+      </c>
+      <c r="H23" t="n">
+        <v>463151.91</v>
+      </c>
+      <c r="I23" t="n">
+        <v>463479.53</v>
+      </c>
+      <c r="J23" t="n">
+        <v>464774.45</v>
+      </c>
+      <c r="K23" t="n">
+        <v>462559.61</v>
+      </c>
+      <c r="L23" t="n">
+        <v>463485.91</v>
+      </c>
+      <c r="M23" t="n">
         <v>464239.59</v>
-      </c>
-      <c r="C23" t="n">
-        <v>462430.79</v>
-      </c>
-      <c r="D23" t="n">
-        <v>484137.05</v>
-      </c>
-      <c r="E23" t="n">
-        <v>463198.67</v>
-      </c>
-      <c r="F23" t="n">
-        <v>507033.93</v>
-      </c>
-      <c r="G23" t="n">
-        <v>507515.67</v>
       </c>
     </row>
     <row r="24">
@@ -1022,22 +1436,38 @@
         </is>
       </c>
       <c r="B24" t="n">
+        <v>611641.45</v>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="n">
+        <v>639554.78</v>
+      </c>
+      <c r="E24" t="n">
+        <v>690681.27</v>
+      </c>
+      <c r="F24" t="n">
+        <v>714319.46</v>
+      </c>
+      <c r="G24" t="n">
+        <v>724282.86</v>
+      </c>
+      <c r="H24" t="n">
+        <v>724431.5</v>
+      </c>
+      <c r="I24" t="n">
+        <v>689989.47</v>
+      </c>
+      <c r="J24" t="n">
+        <v>684835.1899999999</v>
+      </c>
+      <c r="K24" t="n">
+        <v>663278.58</v>
+      </c>
+      <c r="L24" t="n">
+        <v>654869.75</v>
+      </c>
+      <c r="M24" t="n">
         <v>655734.75</v>
-      </c>
-      <c r="C24" t="n">
-        <v>655036.85</v>
-      </c>
-      <c r="D24" t="n">
-        <v>684441.22</v>
-      </c>
-      <c r="E24" t="n">
-        <v>654914</v>
-      </c>
-      <c r="F24" t="n">
-        <v>699550.91</v>
-      </c>
-      <c r="G24" t="n">
-        <v>760891.0600000001</v>
       </c>
     </row>
     <row r="25">
@@ -1047,22 +1477,38 @@
         </is>
       </c>
       <c r="B25" t="n">
+        <v>601642.11</v>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="n">
+        <v>652523.27</v>
+      </c>
+      <c r="E25" t="n">
+        <v>659189.73</v>
+      </c>
+      <c r="F25" t="n">
+        <v>659074.29</v>
+      </c>
+      <c r="G25" t="n">
+        <v>668256.76</v>
+      </c>
+      <c r="H25" t="n">
+        <v>669454.79</v>
+      </c>
+      <c r="I25" t="n">
+        <v>653530.89</v>
+      </c>
+      <c r="J25" t="n">
+        <v>639080.25</v>
+      </c>
+      <c r="K25" t="n">
+        <v>638064.58</v>
+      </c>
+      <c r="L25" t="n">
+        <v>621581.1899999999</v>
+      </c>
+      <c r="M25" t="n">
         <v>622591.0600000001</v>
-      </c>
-      <c r="C25" t="n">
-        <v>622763.86</v>
-      </c>
-      <c r="D25" t="n">
-        <v>650583.23</v>
-      </c>
-      <c r="E25" t="n">
-        <v>602694.5</v>
-      </c>
-      <c r="F25" t="n">
-        <v>668082.3199999999</v>
-      </c>
-      <c r="G25" t="n">
-        <v>712420.38</v>
       </c>
     </row>
     <row r="26">
@@ -1072,22 +1518,38 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>613831.85</v>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="n">
+        <v>894207.87</v>
+      </c>
+      <c r="E26" t="n">
+        <v>979939.37</v>
+      </c>
+      <c r="F26" t="n">
+        <v>969234.1800000001</v>
+      </c>
+      <c r="G26" t="n">
+        <v>966837.74</v>
+      </c>
+      <c r="H26" t="n">
+        <v>967559.23</v>
+      </c>
+      <c r="I26" t="n">
+        <v>956846.5</v>
+      </c>
+      <c r="J26" t="n">
+        <v>945036.96</v>
+      </c>
+      <c r="K26" t="n">
+        <v>945760.61</v>
+      </c>
+      <c r="L26" t="n">
+        <v>954333.62</v>
+      </c>
+      <c r="M26" t="n">
         <v>985446.1800000001</v>
-      </c>
-      <c r="C26" t="n">
-        <v>984268.54</v>
-      </c>
-      <c r="D26" t="n">
-        <v>1029706.64</v>
-      </c>
-      <c r="E26" t="n">
-        <v>970789.58</v>
-      </c>
-      <c r="F26" t="n">
-        <v>1034984.73</v>
-      </c>
-      <c r="G26" t="n">
-        <v>1066792.81</v>
       </c>
     </row>
     <row r="27">
@@ -1097,22 +1559,40 @@
         </is>
       </c>
       <c r="B27" t="n">
+        <v>215635.15</v>
+      </c>
+      <c r="C27" t="n">
+        <v>458092.97</v>
+      </c>
+      <c r="D27" t="n">
+        <v>467544.09</v>
+      </c>
+      <c r="E27" t="n">
+        <v>470667.3</v>
+      </c>
+      <c r="F27" t="n">
+        <v>502718.04</v>
+      </c>
+      <c r="G27" t="n">
+        <v>503577.65</v>
+      </c>
+      <c r="H27" t="n">
+        <v>504094.39</v>
+      </c>
+      <c r="I27" t="n">
+        <v>502688.84</v>
+      </c>
+      <c r="J27" t="n">
+        <v>502715.15</v>
+      </c>
+      <c r="K27" t="n">
+        <v>503962.14</v>
+      </c>
+      <c r="L27" t="n">
+        <v>527915.3100000001</v>
+      </c>
+      <c r="M27" t="n">
         <v>578861.1899999999</v>
-      </c>
-      <c r="C27" t="n">
-        <v>629107.39</v>
-      </c>
-      <c r="D27" t="n">
-        <v>655961.86</v>
-      </c>
-      <c r="E27" t="n">
-        <v>598132.87</v>
-      </c>
-      <c r="F27" t="n">
-        <v>608357.17</v>
-      </c>
-      <c r="G27" t="n">
-        <v>605746.91</v>
       </c>
     </row>
     <row r="28">
@@ -1122,22 +1602,40 @@
         </is>
       </c>
       <c r="B28" t="n">
+        <v>95932.97</v>
+      </c>
+      <c r="C28" t="n">
+        <v>95762.06</v>
+      </c>
+      <c r="D28" t="n">
+        <v>96347.05</v>
+      </c>
+      <c r="E28" t="n">
+        <v>96066.91</v>
+      </c>
+      <c r="F28" t="n">
+        <v>95882.91</v>
+      </c>
+      <c r="G28" t="n">
+        <v>96267.95</v>
+      </c>
+      <c r="H28" t="n">
+        <v>96147.23</v>
+      </c>
+      <c r="I28" t="n">
+        <v>95809.41</v>
+      </c>
+      <c r="J28" t="n">
+        <v>96059.37</v>
+      </c>
+      <c r="K28" t="n">
+        <v>95856</v>
+      </c>
+      <c r="L28" t="n">
+        <v>96047.78999999999</v>
+      </c>
+      <c r="M28" t="n">
         <v>96034.59</v>
-      </c>
-      <c r="C28" t="n">
-        <v>96270.21000000001</v>
-      </c>
-      <c r="D28" t="n">
-        <v>100569.69</v>
-      </c>
-      <c r="E28" t="n">
-        <v>96162.75</v>
-      </c>
-      <c r="F28" t="n">
-        <v>96117.28999999999</v>
-      </c>
-      <c r="G28" t="n">
-        <v>96040.69</v>
       </c>
     </row>
     <row r="29">
@@ -1147,22 +1645,40 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>1943145.83</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1942133.3</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1944921.58</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1946633.34</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1947682.2</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1946620.01</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1497425.96</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1501919.81</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1223321.24</v>
+      </c>
+      <c r="K29" t="n">
+        <v>1001351.96</v>
+      </c>
+      <c r="L29" t="n">
+        <v>999025.1899999999</v>
+      </c>
+      <c r="M29" t="n">
         <v>998021.2</v>
-      </c>
-      <c r="C29" t="n">
-        <v>1000682.5</v>
-      </c>
-      <c r="D29" t="n">
-        <v>1046871.56</v>
-      </c>
-      <c r="E29" t="n">
-        <v>999539.61</v>
-      </c>
-      <c r="F29" t="n">
-        <v>1001180.66</v>
-      </c>
-      <c r="G29" t="n">
-        <v>1000293.73</v>
       </c>
     </row>
     <row r="30">
@@ -1172,22 +1688,40 @@
         </is>
       </c>
       <c r="B30" t="n">
+        <v>69522.91</v>
+      </c>
+      <c r="C30" t="n">
+        <v>69504.27</v>
+      </c>
+      <c r="D30" t="n">
+        <v>63551.75</v>
+      </c>
+      <c r="E30" t="n">
+        <v>63615.34</v>
+      </c>
+      <c r="F30" t="n">
+        <v>63612.78</v>
+      </c>
+      <c r="G30" t="n">
+        <v>63545.05</v>
+      </c>
+      <c r="H30" t="n">
+        <v>63500.08</v>
+      </c>
+      <c r="I30" t="n">
+        <v>63615.52</v>
+      </c>
+      <c r="J30" t="n">
+        <v>63606.52</v>
+      </c>
+      <c r="K30" t="n">
+        <v>63494.74</v>
+      </c>
+      <c r="L30" t="n">
+        <v>63637.31</v>
+      </c>
+      <c r="M30" t="n">
         <v>63560.44</v>
-      </c>
-      <c r="C30" t="n">
-        <v>63488.05</v>
-      </c>
-      <c r="D30" t="n">
-        <v>66471.52</v>
-      </c>
-      <c r="E30" t="n">
-        <v>63684.42</v>
-      </c>
-      <c r="F30" t="n">
-        <v>63692.96</v>
-      </c>
-      <c r="G30" t="n">
-        <v>88659.95</v>
       </c>
     </row>
     <row r="31">
@@ -1197,22 +1731,40 @@
         </is>
       </c>
       <c r="B31" t="n">
+        <v>24510.69</v>
+      </c>
+      <c r="C31" t="n">
+        <v>24517.51</v>
+      </c>
+      <c r="D31" t="n">
+        <v>24488.73</v>
+      </c>
+      <c r="E31" t="n">
+        <v>24520.26</v>
+      </c>
+      <c r="F31" t="n">
+        <v>24495.6</v>
+      </c>
+      <c r="G31" t="n">
+        <v>24482.28</v>
+      </c>
+      <c r="H31" t="n">
+        <v>24511.55</v>
+      </c>
+      <c r="I31" t="n">
+        <v>24470.96</v>
+      </c>
+      <c r="J31" t="n">
+        <v>24517.82</v>
+      </c>
+      <c r="K31" t="n">
+        <v>24518.19</v>
+      </c>
+      <c r="L31" t="n">
+        <v>24501.6</v>
+      </c>
+      <c r="M31" t="n">
         <v>34496.13</v>
-      </c>
-      <c r="C31" t="n">
-        <v>34478.93</v>
-      </c>
-      <c r="D31" t="n">
-        <v>36030.7</v>
-      </c>
-      <c r="E31" t="n">
-        <v>34492.05</v>
-      </c>
-      <c r="F31" t="n">
-        <v>34529.26</v>
-      </c>
-      <c r="G31" t="n">
-        <v>34504.76</v>
       </c>
     </row>
     <row r="32">
@@ -1222,22 +1774,40 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>330422.7</v>
+      </c>
+      <c r="C32" t="n">
+        <v>330584.64</v>
+      </c>
+      <c r="D32" t="n">
+        <v>330716.74</v>
+      </c>
+      <c r="E32" t="n">
+        <v>330368.44</v>
+      </c>
+      <c r="F32" t="n">
+        <v>330541.83</v>
+      </c>
+      <c r="G32" t="n">
+        <v>320771.11</v>
+      </c>
+      <c r="H32" t="n">
+        <v>320300.06</v>
+      </c>
+      <c r="I32" t="n">
+        <v>285719.68</v>
+      </c>
+      <c r="J32" t="n">
+        <v>275526.32</v>
+      </c>
+      <c r="K32" t="n">
+        <v>265227.33</v>
+      </c>
+      <c r="L32" t="n">
+        <v>245765.65</v>
+      </c>
+      <c r="M32" t="n">
         <v>245349.43</v>
-      </c>
-      <c r="C32" t="n">
-        <v>235640.96</v>
-      </c>
-      <c r="D32" t="n">
-        <v>246076.32</v>
-      </c>
-      <c r="E32" t="n">
-        <v>235749.02</v>
-      </c>
-      <c r="F32" t="n">
-        <v>245714.76</v>
-      </c>
-      <c r="G32" t="n">
-        <v>230660.15</v>
       </c>
     </row>
     <row r="33">
@@ -1247,22 +1817,40 @@
         </is>
       </c>
       <c r="B33" t="n">
+        <v>584953.8</v>
+      </c>
+      <c r="C33" t="n">
+        <v>563917.42</v>
+      </c>
+      <c r="D33" t="n">
+        <v>469304.61</v>
+      </c>
+      <c r="E33" t="n">
+        <v>469741.89</v>
+      </c>
+      <c r="F33" t="n">
+        <v>469312.16</v>
+      </c>
+      <c r="G33" t="n">
+        <v>469676.12</v>
+      </c>
+      <c r="H33" t="n">
+        <v>469460.94</v>
+      </c>
+      <c r="I33" t="n">
+        <v>469220.1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>469670</v>
+      </c>
+      <c r="K33" t="n">
+        <v>469764.23</v>
+      </c>
+      <c r="L33" t="n">
+        <v>449653.4</v>
+      </c>
+      <c r="M33" t="n">
         <v>449394.39</v>
-      </c>
-      <c r="C33" t="n">
-        <v>449835.23</v>
-      </c>
-      <c r="D33" t="n">
-        <v>470304.91</v>
-      </c>
-      <c r="E33" t="n">
-        <v>449317.92</v>
-      </c>
-      <c r="F33" t="n">
-        <v>449657.43</v>
-      </c>
-      <c r="G33" t="n">
-        <v>474845.26</v>
       </c>
     </row>
     <row r="34">
@@ -1272,22 +1860,40 @@
         </is>
       </c>
       <c r="B34" t="n">
+        <v>114976.16</v>
+      </c>
+      <c r="C34" t="n">
+        <v>120265.95</v>
+      </c>
+      <c r="D34" t="n">
+        <v>154369.91</v>
+      </c>
+      <c r="E34" t="n">
+        <v>161544.86</v>
+      </c>
+      <c r="F34" t="n">
+        <v>160255.42</v>
+      </c>
+      <c r="G34" t="n">
+        <v>160345.83</v>
+      </c>
+      <c r="H34" t="n">
+        <v>190178.49</v>
+      </c>
+      <c r="I34" t="n">
+        <v>190331.07</v>
+      </c>
+      <c r="J34" t="n">
+        <v>190497.58</v>
+      </c>
+      <c r="K34" t="n">
+        <v>190219.11</v>
+      </c>
+      <c r="L34" t="n">
+        <v>189066.75</v>
+      </c>
+      <c r="M34" t="n">
         <v>166586.33</v>
-      </c>
-      <c r="C34" t="n">
-        <v>166626.64</v>
-      </c>
-      <c r="D34" t="n">
-        <v>169254.14</v>
-      </c>
-      <c r="E34" t="n">
-        <v>160328.64</v>
-      </c>
-      <c r="F34" t="n">
-        <v>163189.1</v>
-      </c>
-      <c r="G34" t="n">
-        <v>172957.68</v>
       </c>
     </row>
     <row r="35">
@@ -1297,22 +1903,40 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>22658.35</v>
+      </c>
+      <c r="C35" t="n">
+        <v>22642.85</v>
+      </c>
+      <c r="D35" t="n">
+        <v>25572.62</v>
+      </c>
+      <c r="E35" t="n">
+        <v>25604.97</v>
+      </c>
+      <c r="F35" t="n">
+        <v>25572.71</v>
+      </c>
+      <c r="G35" t="n">
+        <v>25612.83</v>
+      </c>
+      <c r="H35" t="n">
+        <v>25577.18</v>
+      </c>
+      <c r="I35" t="n">
+        <v>25612.74</v>
+      </c>
+      <c r="J35" t="n">
+        <v>25579.29</v>
+      </c>
+      <c r="K35" t="n">
+        <v>25602.45</v>
+      </c>
+      <c r="L35" t="n">
+        <v>25601.53</v>
+      </c>
+      <c r="M35" t="n">
         <v>25599.87</v>
-      </c>
-      <c r="C35" t="n">
-        <v>24924.76</v>
-      </c>
-      <c r="D35" t="n">
-        <v>26077.52</v>
-      </c>
-      <c r="E35" t="n">
-        <v>24952.77</v>
-      </c>
-      <c r="F35" t="n">
-        <v>24951.05</v>
-      </c>
-      <c r="G35" t="n">
-        <v>24948.36</v>
       </c>
     </row>
     <row r="36">
@@ -1322,22 +1946,40 @@
         </is>
       </c>
       <c r="B36" t="n">
+        <v>105680.69</v>
+      </c>
+      <c r="C36" t="n">
+        <v>105793.94</v>
+      </c>
+      <c r="D36" t="n">
+        <v>105548.48</v>
+      </c>
+      <c r="E36" t="n">
+        <v>119994.36</v>
+      </c>
+      <c r="F36" t="n">
+        <v>135081.63</v>
+      </c>
+      <c r="G36" t="n">
+        <v>135011.99</v>
+      </c>
+      <c r="H36" t="n">
+        <v>135058.39</v>
+      </c>
+      <c r="I36" t="n">
+        <v>145131.06</v>
+      </c>
+      <c r="J36" t="n">
+        <v>120092.97</v>
+      </c>
+      <c r="K36" t="n">
+        <v>120076.63</v>
+      </c>
+      <c r="L36" t="n">
+        <v>114668.4</v>
+      </c>
+      <c r="M36" t="n">
         <v>114122.72</v>
-      </c>
-      <c r="C36" t="n">
-        <v>114351.69</v>
-      </c>
-      <c r="D36" t="n">
-        <v>119345.39</v>
-      </c>
-      <c r="E36" t="n">
-        <v>114201.14</v>
-      </c>
-      <c r="F36" t="n">
-        <v>152065.36</v>
-      </c>
-      <c r="G36" t="n">
-        <v>152301.53</v>
       </c>
     </row>
     <row r="37">
@@ -1347,22 +1989,40 @@
         </is>
       </c>
       <c r="B37" t="n">
+        <v>248774.94</v>
+      </c>
+      <c r="C37" t="n">
+        <v>248946.29</v>
+      </c>
+      <c r="D37" t="n">
+        <v>248943.45</v>
+      </c>
+      <c r="E37" t="n">
+        <v>248852.33</v>
+      </c>
+      <c r="F37" t="n">
+        <v>248813.27</v>
+      </c>
+      <c r="G37" t="n">
+        <v>248758.39</v>
+      </c>
+      <c r="H37" t="n">
+        <v>248980.01</v>
+      </c>
+      <c r="I37" t="n">
+        <v>248744.99</v>
+      </c>
+      <c r="J37" t="n">
+        <v>248726.16</v>
+      </c>
+      <c r="K37" t="n">
+        <v>248724.51</v>
+      </c>
+      <c r="L37" t="n">
+        <v>248968.04</v>
+      </c>
+      <c r="M37" t="n">
         <v>248823.19</v>
-      </c>
-      <c r="C37" t="n">
-        <v>248726.32</v>
-      </c>
-      <c r="D37" t="n">
-        <v>260037.32</v>
-      </c>
-      <c r="E37" t="n">
-        <v>248865.5</v>
-      </c>
-      <c r="F37" t="n">
-        <v>248826.6</v>
-      </c>
-      <c r="G37" t="n">
-        <v>248781.69</v>
       </c>
     </row>
     <row r="38">
@@ -1372,22 +2032,40 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>99369.00999999999</v>
+      </c>
+      <c r="C38" t="n">
+        <v>99476.06</v>
+      </c>
+      <c r="D38" t="n">
+        <v>73153.64</v>
+      </c>
+      <c r="E38" t="n">
+        <v>73189.88</v>
+      </c>
+      <c r="F38" t="n">
+        <v>73201.53999999999</v>
+      </c>
+      <c r="G38" t="n">
+        <v>96654.77</v>
+      </c>
+      <c r="H38" t="n">
+        <v>96794.8</v>
+      </c>
+      <c r="I38" t="n">
+        <v>96802.31</v>
+      </c>
+      <c r="J38" t="n">
+        <v>96717.49000000001</v>
+      </c>
+      <c r="K38" t="n">
+        <v>96711.98</v>
+      </c>
+      <c r="L38" t="n">
+        <v>96649.74000000001</v>
+      </c>
+      <c r="M38" t="n">
         <v>96788.38</v>
-      </c>
-      <c r="C38" t="n">
-        <v>96707.91</v>
-      </c>
-      <c r="D38" t="n">
-        <v>101038.85</v>
-      </c>
-      <c r="E38" t="n">
-        <v>96625.48</v>
-      </c>
-      <c r="F38" t="n">
-        <v>96765.37</v>
-      </c>
-      <c r="G38" t="n">
-        <v>96637.83</v>
       </c>
     </row>
     <row r="39">
@@ -1397,22 +2075,38 @@
         </is>
       </c>
       <c r="B39" t="n">
+        <v>220924.8</v>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="n">
+        <v>221336.87</v>
+      </c>
+      <c r="E39" t="n">
+        <v>220976.87</v>
+      </c>
+      <c r="F39" t="n">
+        <v>221209.67</v>
+      </c>
+      <c r="G39" t="n">
+        <v>316438.6</v>
+      </c>
+      <c r="H39" t="n">
+        <v>335915.03</v>
+      </c>
+      <c r="I39" t="n">
+        <v>335662.86</v>
+      </c>
+      <c r="J39" t="n">
+        <v>336229.01</v>
+      </c>
+      <c r="K39" t="n">
+        <v>336404.04</v>
+      </c>
+      <c r="L39" t="n">
+        <v>335970.18</v>
+      </c>
+      <c r="M39" t="n">
         <v>333793.46</v>
-      </c>
-      <c r="C39" t="n">
-        <v>333631.66</v>
-      </c>
-      <c r="D39" t="n">
-        <v>348811.89</v>
-      </c>
-      <c r="E39" t="n">
-        <v>333440.32</v>
-      </c>
-      <c r="F39" t="n">
-        <v>333595.26</v>
-      </c>
-      <c r="G39" t="n">
-        <v>333645.16</v>
       </c>
     </row>
     <row r="40">
@@ -1422,22 +2116,40 @@
         </is>
       </c>
       <c r="B40" t="n">
+        <v>399231.85</v>
+      </c>
+      <c r="C40" t="n">
+        <v>398675.83</v>
+      </c>
+      <c r="D40" t="n">
+        <v>399158.52</v>
+      </c>
+      <c r="E40" t="n">
+        <v>398497.8</v>
+      </c>
+      <c r="F40" t="n">
+        <v>399378.2</v>
+      </c>
+      <c r="G40" t="n">
+        <v>399262.44</v>
+      </c>
+      <c r="H40" t="n">
+        <v>399279.59</v>
+      </c>
+      <c r="I40" t="n">
+        <v>399055.01</v>
+      </c>
+      <c r="J40" t="n">
+        <v>399206.85</v>
+      </c>
+      <c r="K40" t="n">
+        <v>399447.02</v>
+      </c>
+      <c r="L40" t="n">
+        <v>399601.09</v>
+      </c>
+      <c r="M40" t="n">
         <v>399589.88</v>
-      </c>
-      <c r="C40" t="n">
-        <v>399077.64</v>
-      </c>
-      <c r="D40" t="n">
-        <v>417524.47</v>
-      </c>
-      <c r="E40" t="n">
-        <v>399601.05</v>
-      </c>
-      <c r="F40" t="n">
-        <v>399448.52</v>
-      </c>
-      <c r="G40" t="n">
-        <v>620906.54</v>
       </c>
     </row>
     <row r="41">
@@ -1447,22 +2159,40 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>142507.79</v>
+      </c>
+      <c r="C41" t="n">
+        <v>142655.19</v>
+      </c>
+      <c r="D41" t="n">
+        <v>142701.06</v>
+      </c>
+      <c r="E41" t="n">
+        <v>142501.45</v>
+      </c>
+      <c r="F41" t="n">
+        <v>142476.3</v>
+      </c>
+      <c r="G41" t="n">
+        <v>142501</v>
+      </c>
+      <c r="H41" t="n">
+        <v>142777.13</v>
+      </c>
+      <c r="I41" t="n">
+        <v>142543.69</v>
+      </c>
+      <c r="J41" t="n">
+        <v>142829.63</v>
+      </c>
+      <c r="K41" t="n">
+        <v>133832.41</v>
+      </c>
+      <c r="L41" t="n">
+        <v>153727.66</v>
+      </c>
+      <c r="M41" t="n">
         <v>153557.85</v>
-      </c>
-      <c r="C41" t="n">
-        <v>178738.94</v>
-      </c>
-      <c r="D41" t="n">
-        <v>186646.86</v>
-      </c>
-      <c r="E41" t="n">
-        <v>178876.85</v>
-      </c>
-      <c r="F41" t="n">
-        <v>186663.26</v>
-      </c>
-      <c r="G41" t="n">
-        <v>272692.8</v>
       </c>
     </row>
     <row r="42">
@@ -1472,22 +2202,40 @@
         </is>
       </c>
       <c r="B42" t="n">
+        <v>320189.3</v>
+      </c>
+      <c r="C42" t="n">
+        <v>319994.27</v>
+      </c>
+      <c r="D42" t="n">
+        <v>320451.4</v>
+      </c>
+      <c r="E42" t="n">
+        <v>320322.24</v>
+      </c>
+      <c r="F42" t="n">
+        <v>320580.21</v>
+      </c>
+      <c r="G42" t="n">
+        <v>320491.89</v>
+      </c>
+      <c r="H42" t="n">
+        <v>319891.55</v>
+      </c>
+      <c r="I42" t="n">
+        <v>320157.72</v>
+      </c>
+      <c r="J42" t="n">
+        <v>319942.86</v>
+      </c>
+      <c r="K42" t="n">
+        <v>320495.12</v>
+      </c>
+      <c r="L42" t="n">
+        <v>320546.99</v>
+      </c>
+      <c r="M42" t="n">
         <v>320147.97</v>
-      </c>
-      <c r="C42" t="n">
-        <v>320122.57</v>
-      </c>
-      <c r="D42" t="n">
-        <v>334292.44</v>
-      </c>
-      <c r="E42" t="n">
-        <v>319830.17</v>
-      </c>
-      <c r="F42" t="n">
-        <v>320289.53</v>
-      </c>
-      <c r="G42" t="n">
-        <v>320376.45</v>
       </c>
     </row>
     <row r="43">
@@ -1497,22 +2245,40 @@
         </is>
       </c>
       <c r="B43" t="n">
+        <v>229972.21</v>
+      </c>
+      <c r="C43" t="n">
+        <v>229555.44</v>
+      </c>
+      <c r="D43" t="n">
+        <v>216429.54</v>
+      </c>
+      <c r="E43" t="n">
+        <v>212345.78</v>
+      </c>
+      <c r="F43" t="n">
+        <v>229473.11</v>
+      </c>
+      <c r="G43" t="n">
+        <v>231945.46</v>
+      </c>
+      <c r="H43" t="n">
+        <v>232586.79</v>
+      </c>
+      <c r="I43" t="n">
+        <v>232273.67</v>
+      </c>
+      <c r="J43" t="n">
+        <v>232510.93</v>
+      </c>
+      <c r="K43" t="n">
+        <v>232695.5</v>
+      </c>
+      <c r="L43" t="n">
+        <v>232609.22</v>
+      </c>
+      <c r="M43" t="n">
         <v>225857.33</v>
-      </c>
-      <c r="C43" t="n">
-        <v>213721.03</v>
-      </c>
-      <c r="D43" t="n">
-        <v>223209.53</v>
-      </c>
-      <c r="E43" t="n">
-        <v>216333.38</v>
-      </c>
-      <c r="F43" t="n">
-        <v>213189.26</v>
-      </c>
-      <c r="G43" t="n">
-        <v>232348.39</v>
       </c>
     </row>
     <row r="44">
@@ -1522,22 +2288,40 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>1061365.07</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1061127.24</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1060780.75</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1059729.42</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1059542.95</v>
+      </c>
+      <c r="G44" t="n">
+        <v>1060798.98</v>
+      </c>
+      <c r="H44" t="n">
+        <v>1061010.6</v>
+      </c>
+      <c r="I44" t="n">
+        <v>1061198.91</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1059931.88</v>
+      </c>
+      <c r="K44" t="n">
+        <v>1059936.66</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1015447.94</v>
+      </c>
+      <c r="M44" t="n">
         <v>1015403.06</v>
-      </c>
-      <c r="C44" t="n">
-        <v>1016422.64</v>
-      </c>
-      <c r="D44" t="n">
-        <v>1061345.72</v>
-      </c>
-      <c r="E44" t="n">
-        <v>1015537.53</v>
-      </c>
-      <c r="F44" t="n">
-        <v>1111276.67</v>
-      </c>
-      <c r="G44" t="n">
-        <v>1174881.47</v>
       </c>
     </row>
     <row r="45">
@@ -1547,147 +2331,305 @@
         </is>
       </c>
       <c r="B45" t="n">
+        <v>2507588.44</v>
+      </c>
+      <c r="C45" t="n">
+        <v>2506691.17</v>
+      </c>
+      <c r="D45" t="n">
+        <v>2505899.29</v>
+      </c>
+      <c r="E45" t="n">
+        <v>2508220.54</v>
+      </c>
+      <c r="F45" t="n">
+        <v>2505883.93</v>
+      </c>
+      <c r="G45" t="n">
+        <v>2501389.44</v>
+      </c>
+      <c r="H45" t="n">
+        <v>2495781.87</v>
+      </c>
+      <c r="I45" t="n">
+        <v>2505831.99</v>
+      </c>
+      <c r="J45" t="n">
+        <v>2454786.01</v>
+      </c>
+      <c r="K45" t="n">
+        <v>2455935.89</v>
+      </c>
+      <c r="L45" t="n">
+        <v>2326184.77</v>
+      </c>
+      <c r="M45" t="n">
         <v>2069764.94</v>
-      </c>
-      <c r="C45" t="n">
-        <v>1955062.09</v>
-      </c>
-      <c r="D45" t="n">
-        <v>1886211.23</v>
-      </c>
-      <c r="E45" t="n">
-        <v>1805626.46</v>
-      </c>
-      <c r="F45" t="n">
-        <v>1802919.2</v>
-      </c>
-      <c r="G45" t="n">
-        <v>1803372.46</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>157044.09</v>
+        <v>1507953.08</v>
       </c>
       <c r="C46" t="n">
-        <v>157242.07</v>
+        <v>1513462.28</v>
       </c>
       <c r="D46" t="n">
-        <v>162105.57</v>
-      </c>
-      <c r="E46" t="n">
-        <v>157842.63</v>
-      </c>
-      <c r="F46" t="n">
-        <v>153769.86</v>
-      </c>
-      <c r="G46" t="n">
-        <v>154442.9</v>
-      </c>
+        <v>1509953.49</v>
+      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Supergestion</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>319291.99</v>
+        <v>154579.37</v>
       </c>
       <c r="C47" t="n">
-        <v>320159.25</v>
+        <v>154269.06</v>
       </c>
       <c r="D47" t="n">
-        <v>334540.07</v>
+        <v>156535.78</v>
       </c>
       <c r="E47" t="n">
-        <v>319014.75</v>
+        <v>158187.86</v>
       </c>
       <c r="F47" t="n">
-        <v>319567.6</v>
+        <v>156743.29</v>
       </c>
       <c r="G47" t="n">
-        <v>319345.89</v>
+        <v>156175.84</v>
+      </c>
+      <c r="H47" t="n">
+        <v>153891.89</v>
+      </c>
+      <c r="I47" t="n">
+        <v>156993.69</v>
+      </c>
+      <c r="J47" t="n">
+        <v>157965.71</v>
+      </c>
+      <c r="K47" t="n">
+        <v>156382.17</v>
+      </c>
+      <c r="L47" t="n">
+        <v>155994.77</v>
+      </c>
+      <c r="M47" t="n">
+        <v>157044.09</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>Supergestion</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>131117.95</v>
+        <v>319272.67</v>
       </c>
       <c r="C48" t="n">
-        <v>131205.56</v>
+        <v>320424.99</v>
       </c>
       <c r="D48" t="n">
-        <v>137024.97</v>
+        <v>319870.37</v>
       </c>
       <c r="E48" t="n">
-        <v>131239.2</v>
+        <v>319281.8</v>
       </c>
       <c r="F48" t="n">
-        <v>131243.3</v>
+        <v>320602</v>
       </c>
       <c r="G48" t="n">
-        <v>144822.16</v>
+        <v>319645.8</v>
+      </c>
+      <c r="H48" t="n">
+        <v>319890.45</v>
+      </c>
+      <c r="I48" t="n">
+        <v>319230.37</v>
+      </c>
+      <c r="J48" t="n">
+        <v>320356.95</v>
+      </c>
+      <c r="K48" t="n">
+        <v>318684.52</v>
+      </c>
+      <c r="L48" t="n">
+        <v>320373.82</v>
+      </c>
+      <c r="M48" t="n">
+        <v>319291.99</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>448459.08</v>
+        <v>114607.64</v>
       </c>
       <c r="C49" t="n">
-        <v>445405.65</v>
+        <v>114605.83</v>
       </c>
       <c r="D49" t="n">
-        <v>459764.52</v>
+        <v>114365.76</v>
       </c>
       <c r="E49" t="n">
-        <v>433977.07</v>
+        <v>131282.2</v>
       </c>
       <c r="F49" t="n">
-        <v>442081.99</v>
+        <v>131108.32</v>
       </c>
       <c r="G49" t="n">
-        <v>455628.65</v>
+        <v>131159.55</v>
+      </c>
+      <c r="H49" t="n">
+        <v>131210.88</v>
+      </c>
+      <c r="I49" t="n">
+        <v>131032.6</v>
+      </c>
+      <c r="J49" t="n">
+        <v>131137.68</v>
+      </c>
+      <c r="K49" t="n">
+        <v>131117.5</v>
+      </c>
+      <c r="L49" t="n">
+        <v>131257.68</v>
+      </c>
+      <c r="M49" t="n">
+        <v>131117.95</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
+          <t>Toronto trust Argy</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>189731.39</v>
+      </c>
+      <c r="C50" t="n">
+        <v>189512.06</v>
+      </c>
+      <c r="D50" t="n">
+        <v>189693.09</v>
+      </c>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>avg</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>490863.72</v>
+      </c>
+      <c r="C51" t="n">
+        <v>495110.27</v>
+      </c>
+      <c r="D51" t="n">
+        <v>500055.58</v>
+      </c>
+      <c r="E51" t="n">
+        <v>490741.81</v>
+      </c>
+      <c r="F51" t="n">
+        <v>492087.6</v>
+      </c>
+      <c r="G51" t="n">
+        <v>496244.7</v>
+      </c>
+      <c r="H51" t="n">
+        <v>485577.18</v>
+      </c>
+      <c r="I51" t="n">
+        <v>482783.52</v>
+      </c>
+      <c r="J51" t="n">
+        <v>475290.24</v>
+      </c>
+      <c r="K51" t="n">
+        <v>464058.1</v>
+      </c>
+      <c r="L51" t="n">
+        <v>453804.74</v>
+      </c>
+      <c r="M51" t="n">
+        <v>448459.08</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
           <t>total</t>
         </is>
       </c>
-      <c r="B50" t="n">
+      <c r="B52" t="n">
+        <v>24052322.06</v>
+      </c>
+      <c r="C52" t="n">
+        <v>19309300.41</v>
+      </c>
+      <c r="D52" t="n">
+        <v>24502723.66</v>
+      </c>
+      <c r="E52" t="n">
+        <v>23064864.98</v>
+      </c>
+      <c r="F52" t="n">
+        <v>23128117.26</v>
+      </c>
+      <c r="G52" t="n">
+        <v>23323501.08</v>
+      </c>
+      <c r="H52" t="n">
+        <v>22822127.52</v>
+      </c>
+      <c r="I52" t="n">
+        <v>22690825.28</v>
+      </c>
+      <c r="J52" t="n">
+        <v>22338641.16</v>
+      </c>
+      <c r="K52" t="n">
+        <v>21810730.72</v>
+      </c>
+      <c r="L52" t="n">
+        <v>21328822.59</v>
+      </c>
+      <c r="M52" t="n">
         <v>21077576.56</v>
-      </c>
-      <c r="C50" t="n">
-        <v>20934065.77</v>
-      </c>
-      <c r="D50" t="n">
-        <v>21608932.6</v>
-      </c>
-      <c r="E50" t="n">
-        <v>20396922.17</v>
-      </c>
-      <c r="F50" t="n">
-        <v>20777853.31</v>
-      </c>
-      <c r="G50" t="n">
-        <v>21414546.56</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/ALUA.xlsx
+++ b/backend/src/excel_handler/files/ALUA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M52"/>
+  <dimension ref="A1:AA51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,62 +436,132 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>06-01-2023</t>
+          <t>23-03-2023</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>13-01-2023</t>
+          <t>31-03-2023</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>20-01-2023</t>
+          <t>05-04-2023</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>27-01-2023</t>
+          <t>14-04-2023</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>03-02-2023</t>
+          <t>21-04-2023</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>10-02-2023</t>
+          <t>28-04-2023</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>17-02-2023</t>
+          <t>05-05-2023</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>24-02-2023</t>
+          <t>12-05-2023</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>03-03-2023</t>
+          <t>19-05-2023</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>10-03-2023</t>
+          <t>24-05-2023</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>17-03-2023</t>
+          <t>02-06-2023</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>23-03-2023</t>
+          <t>09-06-2023</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>16-06-2023</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>23-06-2023</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>30-06-2023</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>14-07-2023</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>21-07-2023</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>28-07-2023</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>04-08-2023</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>11-08-2023</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>18-08-2023</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>25-08-2023</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>01-09-2023</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>08-09-2023</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>22-09-2023</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>29-09-2023</t>
         </is>
       </c>
     </row>
@@ -502,40 +572,82 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>226089.51</v>
+        <v>292590.22</v>
       </c>
       <c r="C2" t="n">
-        <v>345962.63</v>
+        <v>292446.82</v>
       </c>
       <c r="D2" t="n">
-        <v>437008.75</v>
+        <v>306064.16</v>
       </c>
       <c r="E2" t="n">
-        <v>437154.48</v>
+        <v>292315.37</v>
       </c>
       <c r="F2" t="n">
-        <v>436812.01</v>
+        <v>310964.96</v>
       </c>
       <c r="G2" t="n">
-        <v>437305.77</v>
+        <v>310665.14</v>
       </c>
       <c r="H2" t="n">
-        <v>388362.29</v>
+        <v>311097.87</v>
       </c>
       <c r="I2" t="n">
-        <v>338435.95</v>
+        <v>311119.82</v>
       </c>
       <c r="J2" t="n">
-        <v>338789.98</v>
+        <v>370922.54</v>
       </c>
       <c r="K2" t="n">
-        <v>338230.79</v>
+        <v>371723.03</v>
       </c>
       <c r="L2" t="n">
-        <v>292417.02</v>
+        <v>398216.88</v>
       </c>
       <c r="M2" t="n">
-        <v>292590.22</v>
+        <v>425535.66</v>
+      </c>
+      <c r="N2" t="n">
+        <v>468684.97</v>
+      </c>
+      <c r="O2" t="n">
+        <v>523279.38</v>
+      </c>
+      <c r="P2" t="n">
+        <v>577839.3100000001</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>577634.45</v>
+      </c>
+      <c r="R2" t="n">
+        <v>577923.12</v>
+      </c>
+      <c r="S2" t="n">
+        <v>578264.66</v>
+      </c>
+      <c r="T2" t="n">
+        <v>565003.3199999999</v>
+      </c>
+      <c r="U2" t="n">
+        <v>564666.14</v>
+      </c>
+      <c r="V2" t="n">
+        <v>782696.67</v>
+      </c>
+      <c r="W2" t="n">
+        <v>782645.0699999999</v>
+      </c>
+      <c r="X2" t="n">
+        <v>806007.6</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>745225.4300000001</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>573347.75</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>541735.28</v>
       </c>
     </row>
     <row r="3">
@@ -545,40 +657,82 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>879586.27</v>
+        <v>957849.0600000001</v>
       </c>
       <c r="C3" t="n">
-        <v>879676.12</v>
+        <v>956522.48</v>
       </c>
       <c r="D3" t="n">
-        <v>922500.4399999999</v>
+        <v>1000797.42</v>
       </c>
       <c r="E3" t="n">
-        <v>953688.5600000001</v>
+        <v>958057.7</v>
       </c>
       <c r="F3" t="n">
-        <v>952976.5600000001</v>
+        <v>957129.38</v>
       </c>
       <c r="G3" t="n">
-        <v>954028.14</v>
+        <v>1023782.09</v>
       </c>
       <c r="H3" t="n">
-        <v>910147.72</v>
+        <v>1024427.75</v>
       </c>
       <c r="I3" t="n">
-        <v>909695.97</v>
+        <v>1024955.83</v>
       </c>
       <c r="J3" t="n">
-        <v>909206.85</v>
+        <v>1067915.89</v>
       </c>
       <c r="K3" t="n">
-        <v>937850.71</v>
+        <v>1093210.45</v>
       </c>
       <c r="L3" t="n">
-        <v>909061.5</v>
+        <v>1056216.69</v>
       </c>
       <c r="M3" t="n">
-        <v>957849.0600000001</v>
+        <v>1000196.22</v>
+      </c>
+      <c r="N3" t="n">
+        <v>999821.73</v>
+      </c>
+      <c r="O3" t="n">
+        <v>999452.38</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1049285.08</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1094384.62</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1159022.77</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1124176.27</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1132996.28</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1125091.98</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1124739.29</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1155431.58</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1206463.6</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>1206620.14</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1172954.8</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1172374.89</v>
       </c>
     </row>
     <row r="4">
@@ -588,40 +742,82 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>105473.76</v>
+        <v>120514.15</v>
       </c>
       <c r="C4" t="n">
-        <v>105611.31</v>
+        <v>120564.64</v>
       </c>
       <c r="D4" t="n">
-        <v>105323.75</v>
+        <v>125770.89</v>
       </c>
       <c r="E4" t="n">
-        <v>120495.71</v>
+        <v>120388.13</v>
       </c>
       <c r="F4" t="n">
-        <v>120575.02</v>
+        <v>120504.31</v>
       </c>
       <c r="G4" t="n">
-        <v>120532.19</v>
+        <v>152714.09</v>
       </c>
       <c r="H4" t="n">
-        <v>120676.63</v>
+        <v>152784.69</v>
       </c>
       <c r="I4" t="n">
-        <v>120460.69</v>
+        <v>152608.4</v>
       </c>
       <c r="J4" t="n">
-        <v>120643.75</v>
+        <v>152751.2</v>
       </c>
       <c r="K4" t="n">
-        <v>120517.69</v>
+        <v>152565.2</v>
       </c>
       <c r="L4" t="n">
-        <v>120585.9</v>
+        <v>152800.08</v>
       </c>
       <c r="M4" t="n">
-        <v>120514.15</v>
+        <v>152791.01</v>
+      </c>
+      <c r="N4" t="n">
+        <v>152631.31</v>
+      </c>
+      <c r="O4" t="n">
+        <v>153841.36</v>
+      </c>
+      <c r="P4" t="n">
+        <v>152817.81</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>152494.95</v>
+      </c>
+      <c r="R4" t="n">
+        <v>152588.31</v>
+      </c>
+      <c r="S4" t="n">
+        <v>152752.5</v>
+      </c>
+      <c r="T4" t="n">
+        <v>152820.91</v>
+      </c>
+      <c r="U4" t="n">
+        <v>152660.29</v>
+      </c>
+      <c r="V4" t="n">
+        <v>152064.47</v>
+      </c>
+      <c r="W4" t="n">
+        <v>152818.46</v>
+      </c>
+      <c r="X4" t="n">
+        <v>152789.05</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>152627.88</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>201926</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>254794.91</v>
       </c>
     </row>
     <row r="5">
@@ -631,40 +827,82 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>235786.46</v>
+        <v>235789.5</v>
       </c>
       <c r="C5" t="n">
-        <v>235983.86</v>
+        <v>249016.86</v>
       </c>
       <c r="D5" t="n">
-        <v>235757.55</v>
+        <v>260460.05</v>
       </c>
       <c r="E5" t="n">
-        <v>235932.29</v>
+        <v>249306.12</v>
       </c>
       <c r="F5" t="n">
-        <v>235968.98</v>
+        <v>191872.21</v>
       </c>
       <c r="G5" t="n">
-        <v>235721.39</v>
+        <v>171080.64</v>
       </c>
       <c r="H5" t="n">
-        <v>236094.3</v>
+        <v>181857.65</v>
       </c>
       <c r="I5" t="n">
-        <v>235899.83</v>
+        <v>178527.69</v>
       </c>
       <c r="J5" t="n">
-        <v>236040.51</v>
+        <v>213462.4</v>
       </c>
       <c r="K5" t="n">
-        <v>235782.07</v>
+        <v>213675.95</v>
       </c>
       <c r="L5" t="n">
-        <v>235707.26</v>
+        <v>224900.36</v>
       </c>
       <c r="M5" t="n">
-        <v>235789.5</v>
+        <v>235856.91</v>
+      </c>
+      <c r="N5" t="n">
+        <v>252585.04</v>
+      </c>
+      <c r="O5" t="n">
+        <v>252582.85</v>
+      </c>
+      <c r="P5" t="n">
+        <v>252490.22</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>274056.22</v>
+      </c>
+      <c r="R5" t="n">
+        <v>291275.62</v>
+      </c>
+      <c r="S5" t="n">
+        <v>304077.75</v>
+      </c>
+      <c r="T5" t="n">
+        <v>304031.33</v>
+      </c>
+      <c r="U5" t="n">
+        <v>311396.59</v>
+      </c>
+      <c r="V5" t="n">
+        <v>341230.99</v>
+      </c>
+      <c r="W5" t="n">
+        <v>356331.8</v>
+      </c>
+      <c r="X5" t="n">
+        <v>344088.48</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>343650.37</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>386627.59</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>393781.19</v>
       </c>
     </row>
     <row r="6">
@@ -674,40 +912,82 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>286942.29</v>
+        <v>225820.95</v>
       </c>
       <c r="C6" t="n">
-        <v>287401.77</v>
+        <v>225677.29</v>
       </c>
       <c r="D6" t="n">
-        <v>331696.65</v>
+        <v>235562.76</v>
       </c>
       <c r="E6" t="n">
-        <v>331145.03</v>
+        <v>225363.47</v>
       </c>
       <c r="F6" t="n">
-        <v>331538.5</v>
+        <v>225514.02</v>
       </c>
       <c r="G6" t="n">
-        <v>331553.43</v>
+        <v>226020.7</v>
       </c>
       <c r="H6" t="n">
-        <v>331327.17</v>
+        <v>225570.08</v>
       </c>
       <c r="I6" t="n">
-        <v>330750.65</v>
+        <v>225770.2</v>
       </c>
       <c r="J6" t="n">
-        <v>331538.82</v>
+        <v>225970.61</v>
       </c>
       <c r="K6" t="n">
-        <v>225380.98</v>
+        <v>225310.71</v>
       </c>
       <c r="L6" t="n">
-        <v>226153.56</v>
+        <v>225593.36</v>
       </c>
       <c r="M6" t="n">
-        <v>225820.95</v>
+        <v>225779.91</v>
+      </c>
+      <c r="N6" t="n">
+        <v>225895.63</v>
+      </c>
+      <c r="O6" t="n">
+        <v>225719.77</v>
+      </c>
+      <c r="P6" t="n">
+        <v>226162.69</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>225186.66</v>
+      </c>
+      <c r="R6" t="n">
+        <v>225414.59</v>
+      </c>
+      <c r="S6" t="n">
+        <v>309467.34</v>
+      </c>
+      <c r="T6" t="n">
+        <v>312120.17</v>
+      </c>
+      <c r="U6" t="n">
+        <v>310455.12</v>
+      </c>
+      <c r="V6" t="n">
+        <v>310097</v>
+      </c>
+      <c r="W6" t="n">
+        <v>310427.29</v>
+      </c>
+      <c r="X6" t="n">
+        <v>309700.58</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>310365.19</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>309876.59</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>309608.58</v>
       </c>
     </row>
     <row r="7">
@@ -717,40 +997,82 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1001323.34</v>
+        <v>571523.55</v>
       </c>
       <c r="C7" t="n">
-        <v>1001834.36</v>
+        <v>571967.53</v>
       </c>
       <c r="D7" t="n">
-        <v>1002487.38</v>
+        <v>597764.9300000001</v>
       </c>
       <c r="E7" t="n">
-        <v>1001631.2</v>
+        <v>572183.0699999999</v>
       </c>
       <c r="F7" t="n">
-        <v>1002417.53</v>
+        <v>571314.96</v>
       </c>
       <c r="G7" t="n">
-        <v>1001536.55</v>
+        <v>572005.1899999999</v>
       </c>
       <c r="H7" t="n">
-        <v>1001492.73</v>
+        <v>571701.13</v>
       </c>
       <c r="I7" t="n">
-        <v>1002100.82</v>
+        <v>571449.55</v>
       </c>
       <c r="J7" t="n">
-        <v>1002119.32</v>
+        <v>571529.14</v>
       </c>
       <c r="K7" t="n">
-        <v>699870.52</v>
+        <v>571602.64</v>
       </c>
       <c r="L7" t="n">
-        <v>572824.17</v>
+        <v>571321.1899999999</v>
       </c>
       <c r="M7" t="n">
-        <v>571523.55</v>
+        <v>572798.5699999999</v>
+      </c>
+      <c r="N7" t="n">
+        <v>572536.76</v>
+      </c>
+      <c r="O7" t="n">
+        <v>572532.03</v>
+      </c>
+      <c r="P7" t="n">
+        <v>572376.92</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>571512.84</v>
+      </c>
+      <c r="R7" t="n">
+        <v>572060.8199999999</v>
+      </c>
+      <c r="S7" t="n">
+        <v>571401.49</v>
+      </c>
+      <c r="T7" t="n">
+        <v>575903.3199999999</v>
+      </c>
+      <c r="U7" t="n">
+        <v>572639.1899999999</v>
+      </c>
+      <c r="V7" t="n">
+        <v>572224.53</v>
+      </c>
+      <c r="W7" t="n">
+        <v>572711.22</v>
+      </c>
+      <c r="X7" t="n">
+        <v>571345.27</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>572184.64</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>571488.25</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>572054.45</v>
       </c>
     </row>
     <row r="8">
@@ -760,40 +1082,82 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>598915.4399999999</v>
+        <v>598753.3100000001</v>
       </c>
       <c r="C8" t="n">
-        <v>598348.37</v>
+        <v>598981.95</v>
       </c>
       <c r="D8" t="n">
-        <v>598832.55</v>
+        <v>626032.38</v>
       </c>
       <c r="E8" t="n">
-        <v>598767.6899999999</v>
+        <v>598316.13</v>
       </c>
       <c r="F8" t="n">
-        <v>598220.63</v>
+        <v>598175.01</v>
       </c>
       <c r="G8" t="n">
-        <v>599005.26</v>
+        <v>598926.5699999999</v>
       </c>
       <c r="H8" t="n">
-        <v>598750.75</v>
+        <v>598788.14</v>
       </c>
       <c r="I8" t="n">
-        <v>599119.8199999999</v>
+        <v>598684.61</v>
       </c>
       <c r="J8" t="n">
-        <v>598299.92</v>
+        <v>598577.1800000001</v>
       </c>
       <c r="K8" t="n">
-        <v>599069.76</v>
+        <v>598231.14</v>
       </c>
       <c r="L8" t="n">
-        <v>599094.79</v>
+        <v>598546.87</v>
       </c>
       <c r="M8" t="n">
-        <v>598753.3100000001</v>
+        <v>598323.52</v>
+      </c>
+      <c r="N8" t="n">
+        <v>598282.51</v>
+      </c>
+      <c r="O8" t="n">
+        <v>598695.6800000001</v>
+      </c>
+      <c r="P8" t="n">
+        <v>599003.87</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>598918.16</v>
+      </c>
+      <c r="R8" t="n">
+        <v>695404.79</v>
+      </c>
+      <c r="S8" t="n">
+        <v>695357.97</v>
+      </c>
+      <c r="T8" t="n">
+        <v>699423.36</v>
+      </c>
+      <c r="U8" t="n">
+        <v>694517.04</v>
+      </c>
+      <c r="V8" t="n">
+        <v>694793.8199999999</v>
+      </c>
+      <c r="W8" t="n">
+        <v>695380.35</v>
+      </c>
+      <c r="X8" t="n">
+        <v>695357.1800000001</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>695149.6899999999</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>695247.89</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>695078.61</v>
       </c>
     </row>
     <row r="9">
@@ -803,40 +1167,82 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>756208.8199999999</v>
+        <v>1023918.6</v>
       </c>
       <c r="C9" t="n">
-        <v>878817.86</v>
+        <v>1024440.02</v>
       </c>
       <c r="D9" t="n">
-        <v>972815.3100000001</v>
+        <v>1070480.53</v>
       </c>
       <c r="E9" t="n">
-        <v>1044012.47</v>
+        <v>1024006.57</v>
       </c>
       <c r="F9" t="n">
-        <v>1044101.1</v>
+        <v>1024228.1</v>
       </c>
       <c r="G9" t="n">
-        <v>1080652.18</v>
+        <v>1101894.64</v>
       </c>
       <c r="H9" t="n">
-        <v>1080562.59</v>
+        <v>1101555.6</v>
       </c>
       <c r="I9" t="n">
-        <v>1080712.01</v>
+        <v>1102042.42</v>
       </c>
       <c r="J9" t="n">
-        <v>1080742.12</v>
+        <v>1101811.49</v>
       </c>
       <c r="K9" t="n">
-        <v>1080670.59</v>
+        <v>1156745.39</v>
       </c>
       <c r="L9" t="n">
-        <v>1023925.12</v>
+        <v>1156672.26</v>
       </c>
       <c r="M9" t="n">
-        <v>1023918.6</v>
+        <v>1156796.47</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1078906.83</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1079372.65</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1051449.42</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1050978.56</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1051255.43</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1095131.81</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1102768.06</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1094850.29</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1095139.1</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1094806.53</v>
+      </c>
+      <c r="X9" t="n">
+        <v>1155609.14</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>1155701.39</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>1173603.79</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>1173553.23</v>
       </c>
     </row>
     <row r="10">
@@ -846,40 +1252,82 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>21616.12</v>
+        <v>11551.84</v>
       </c>
       <c r="C10" t="n">
-        <v>11558.68</v>
+        <v>11577.77</v>
       </c>
       <c r="D10" t="n">
-        <v>11612.95</v>
+        <v>12179.35</v>
       </c>
       <c r="E10" t="n">
-        <v>11616.22</v>
+        <v>11636.7</v>
       </c>
       <c r="F10" t="n">
-        <v>11564.49</v>
+        <v>11596.08</v>
       </c>
       <c r="G10" t="n">
-        <v>11549.24</v>
+        <v>11618.8</v>
       </c>
       <c r="H10" t="n">
-        <v>11563.19</v>
+        <v>11626.03</v>
       </c>
       <c r="I10" t="n">
-        <v>11548.23</v>
+        <v>11580.96</v>
       </c>
       <c r="J10" t="n">
-        <v>11565.94</v>
+        <v>11628.28</v>
       </c>
       <c r="K10" t="n">
-        <v>11589.02</v>
+        <v>14312.87</v>
       </c>
       <c r="L10" t="n">
-        <v>11547.38</v>
+        <v>14302.68</v>
       </c>
       <c r="M10" t="n">
-        <v>11551.84</v>
+        <v>17050.18</v>
+      </c>
+      <c r="N10" t="n">
+        <v>17016.47</v>
+      </c>
+      <c r="O10" t="n">
+        <v>17037.21</v>
+      </c>
+      <c r="P10" t="n">
+        <v>17112.26</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>16998.58</v>
+      </c>
+      <c r="R10" t="n">
+        <v>16987.19</v>
+      </c>
+      <c r="S10" t="n">
+        <v>17006.65</v>
+      </c>
+      <c r="T10" t="n">
+        <v>17110.49</v>
+      </c>
+      <c r="U10" t="n">
+        <v>17053.18</v>
+      </c>
+      <c r="V10" t="n">
+        <v>17001.52</v>
+      </c>
+      <c r="W10" t="n">
+        <v>17010.94</v>
+      </c>
+      <c r="X10" t="n">
+        <v>16990.47</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>16992.17</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>17005.51</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>17041.02</v>
       </c>
     </row>
     <row r="11">
@@ -889,40 +1337,82 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>944897.53</v>
+        <v>943725.76</v>
       </c>
       <c r="C11" t="n">
-        <v>941568.24</v>
+        <v>939767.42</v>
       </c>
       <c r="D11" t="n">
-        <v>942604.53</v>
+        <v>984354.9399999999</v>
       </c>
       <c r="E11" t="n">
-        <v>943980.7</v>
+        <v>940207.77</v>
       </c>
       <c r="F11" t="n">
-        <v>941236.88</v>
+        <v>945226.9</v>
       </c>
       <c r="G11" t="n">
-        <v>945207.66</v>
+        <v>943605.95</v>
       </c>
       <c r="H11" t="n">
-        <v>942802.45</v>
+        <v>946871.3199999999</v>
       </c>
       <c r="I11" t="n">
-        <v>944354.47</v>
+        <v>944995.85</v>
       </c>
       <c r="J11" t="n">
-        <v>941188.05</v>
+        <v>946532.25</v>
       </c>
       <c r="K11" t="n">
-        <v>939496.76</v>
+        <v>943867.9300000001</v>
       </c>
       <c r="L11" t="n">
-        <v>943513.28</v>
+        <v>947440.3100000001</v>
       </c>
       <c r="M11" t="n">
-        <v>943725.76</v>
+        <v>945289.49</v>
+      </c>
+      <c r="N11" t="n">
+        <v>944793.87</v>
+      </c>
+      <c r="O11" t="n">
+        <v>944583.27</v>
+      </c>
+      <c r="P11" t="n">
+        <v>946152.63</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>733422.26</v>
+      </c>
+      <c r="R11" t="n">
+        <v>731666.02</v>
+      </c>
+      <c r="S11" t="n">
+        <v>732102.59</v>
+      </c>
+      <c r="T11" t="n">
+        <v>739540.35</v>
+      </c>
+      <c r="U11" t="n">
+        <v>653642.55</v>
+      </c>
+      <c r="V11" t="n">
+        <v>652720.92</v>
+      </c>
+      <c r="W11" t="n">
+        <v>651682.24</v>
+      </c>
+      <c r="X11" t="n">
+        <v>653156.38</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>654952.45</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>655303.33</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>653617.78</v>
       </c>
     </row>
     <row r="12">
@@ -932,40 +1422,82 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>35514.84</v>
+        <v>4208.5</v>
       </c>
       <c r="C12" t="n">
-        <v>35552.2</v>
+        <v>4206.91</v>
       </c>
       <c r="D12" t="n">
-        <v>35547.39</v>
+        <v>4395.77</v>
       </c>
       <c r="E12" t="n">
-        <v>35516.83</v>
+        <v>4207.75</v>
       </c>
       <c r="F12" t="n">
-        <v>35500.79</v>
+        <v>4211.26</v>
       </c>
       <c r="G12" t="n">
-        <v>35420.96</v>
+        <v>4206.61</v>
       </c>
       <c r="H12" t="n">
-        <v>35491.81</v>
+        <v>4211.22</v>
       </c>
       <c r="I12" t="n">
-        <v>35456.13</v>
+        <v>4210.99</v>
       </c>
       <c r="J12" t="n">
-        <v>35445.07</v>
+        <v>4209</v>
       </c>
       <c r="K12" t="n">
-        <v>4210.63</v>
+        <v>4208.28</v>
       </c>
       <c r="L12" t="n">
-        <v>4208.64</v>
+        <v>21136.08</v>
       </c>
       <c r="M12" t="n">
-        <v>4208.5</v>
+        <v>21120.71</v>
+      </c>
+      <c r="N12" t="n">
+        <v>21119.04</v>
+      </c>
+      <c r="O12" t="n">
+        <v>6834.24</v>
+      </c>
+      <c r="P12" t="n">
+        <v>6762.69</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>6758.42</v>
+      </c>
+      <c r="R12" t="n">
+        <v>6763.17</v>
+      </c>
+      <c r="S12" t="n">
+        <v>6767.97</v>
+      </c>
+      <c r="T12" t="n">
+        <v>6810.53</v>
+      </c>
+      <c r="U12" t="n">
+        <v>6769.03</v>
+      </c>
+      <c r="V12" t="n">
+        <v>6756.46</v>
+      </c>
+      <c r="W12" t="n">
+        <v>6763.1</v>
+      </c>
+      <c r="X12" t="n">
+        <v>6763.02</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>6766.17</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>6759.7</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>6496.58</v>
       </c>
     </row>
     <row r="13">
@@ -975,40 +1507,82 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8193.27</v>
+        <v>8197.09</v>
       </c>
       <c r="C13" t="n">
-        <v>8200.26</v>
+        <v>8204.559999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>8195.85</v>
+        <v>8564.84</v>
       </c>
       <c r="E13" t="n">
-        <v>8198.610000000001</v>
+        <v>8200.83</v>
       </c>
       <c r="F13" t="n">
-        <v>8206.780000000001</v>
+        <v>8195.030000000001</v>
       </c>
       <c r="G13" t="n">
-        <v>8199.459999999999</v>
+        <v>8204.290000000001</v>
       </c>
       <c r="H13" t="n">
-        <v>8201.33</v>
+        <v>8204.370000000001</v>
       </c>
       <c r="I13" t="n">
-        <v>8206.02</v>
+        <v>8193.379999999999</v>
       </c>
       <c r="J13" t="n">
-        <v>8198.200000000001</v>
+        <v>8199.379999999999</v>
       </c>
       <c r="K13" t="n">
-        <v>8194.98</v>
+        <v>8201.629999999999</v>
       </c>
       <c r="L13" t="n">
-        <v>8200.540000000001</v>
+        <v>8195.040000000001</v>
       </c>
       <c r="M13" t="n">
-        <v>8197.09</v>
+        <v>8194.49</v>
+      </c>
+      <c r="N13" t="n">
+        <v>8203.08</v>
+      </c>
+      <c r="O13" t="n">
+        <v>8206.360000000001</v>
+      </c>
+      <c r="P13" t="n">
+        <v>8198.24</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>8202.719999999999</v>
+      </c>
+      <c r="R13" t="n">
+        <v>8195.559999999999</v>
+      </c>
+      <c r="S13" t="n">
+        <v>8202.719999999999</v>
+      </c>
+      <c r="T13" t="n">
+        <v>8260.23</v>
+      </c>
+      <c r="U13" t="n">
+        <v>8204.74</v>
+      </c>
+      <c r="V13" t="n">
+        <v>8199.82</v>
+      </c>
+      <c r="W13" t="n">
+        <v>8196.27</v>
+      </c>
+      <c r="X13" t="n">
+        <v>8200.879999999999</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>8196.43</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>8201.76</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>8197.84</v>
       </c>
     </row>
     <row r="14">
@@ -1018,41 +1592,53 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>13408.81</v>
+        <v>13447.65</v>
       </c>
       <c r="C14" t="n">
-        <v>13415.14</v>
+        <v>13399.43</v>
       </c>
       <c r="D14" t="n">
-        <v>13379.28</v>
+        <v>14050.47</v>
       </c>
       <c r="E14" t="n">
-        <v>13447.17</v>
+        <v>13431.88</v>
       </c>
       <c r="F14" t="n">
-        <v>13437.99</v>
+        <v>13420.11</v>
       </c>
       <c r="G14" t="n">
-        <v>13398.86</v>
+        <v>13407.19</v>
       </c>
       <c r="H14" t="n">
-        <v>13405.39</v>
+        <v>13385.11</v>
       </c>
       <c r="I14" t="n">
-        <v>13441.29</v>
+        <v>13425.08</v>
       </c>
       <c r="J14" t="n">
-        <v>13400.1</v>
+        <v>13410.9</v>
       </c>
       <c r="K14" t="n">
-        <v>13431.48</v>
+        <v>13415.25</v>
       </c>
       <c r="L14" t="n">
-        <v>13400.71</v>
-      </c>
-      <c r="M14" t="n">
-        <v>13447.65</v>
-      </c>
+        <v>13428.04</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1061,40 +1647,82 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>699372.66</v>
+        <v>937629.91</v>
       </c>
       <c r="C15" t="n">
-        <v>700664.96</v>
+        <v>965344.3100000001</v>
       </c>
       <c r="D15" t="n">
-        <v>700581.14</v>
+        <v>967585.64</v>
       </c>
       <c r="E15" t="n">
-        <v>699058.89</v>
+        <v>887559.6800000001</v>
       </c>
       <c r="F15" t="n">
-        <v>700041.92</v>
+        <v>1036957.32</v>
       </c>
       <c r="G15" t="n">
-        <v>738559.08</v>
+        <v>934472.95</v>
       </c>
       <c r="H15" t="n">
-        <v>737382.9300000001</v>
+        <v>839663.62</v>
       </c>
       <c r="I15" t="n">
-        <v>738285.42</v>
+        <v>852651.5</v>
       </c>
       <c r="J15" t="n">
-        <v>813079.15</v>
+        <v>924237.55</v>
       </c>
       <c r="K15" t="n">
-        <v>968114.1800000001</v>
+        <v>923823.38</v>
       </c>
       <c r="L15" t="n">
-        <v>937824.92</v>
+        <v>957475.3</v>
       </c>
       <c r="M15" t="n">
-        <v>937629.91</v>
+        <v>1046483.16</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1070676.55</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1106816.62</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1158470.31</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1311581.44</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1310863.76</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1327118.64</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1243495.12</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1229757.17</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1241556.67</v>
+      </c>
+      <c r="W15" t="n">
+        <v>1255606.11</v>
+      </c>
+      <c r="X15" t="n">
+        <v>1278280</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>1258541.9</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>1335898.9</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>1405475.19</v>
       </c>
     </row>
     <row r="16">
@@ -1104,40 +1732,82 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>196743.44</v>
+        <v>196402.57</v>
       </c>
       <c r="C16" t="n">
-        <v>196842.63</v>
+        <v>196699.99</v>
       </c>
       <c r="D16" t="n">
-        <v>196577.99</v>
+        <v>205613.67</v>
       </c>
       <c r="E16" t="n">
-        <v>196619.02</v>
+        <v>196879.41</v>
       </c>
       <c r="F16" t="n">
-        <v>196591.95</v>
+        <v>196886.18</v>
       </c>
       <c r="G16" t="n">
-        <v>196511.79</v>
+        <v>196553.42</v>
       </c>
       <c r="H16" t="n">
-        <v>196839.24</v>
+        <v>196225.35</v>
       </c>
       <c r="I16" t="n">
-        <v>196856.07</v>
+        <v>196864.27</v>
       </c>
       <c r="J16" t="n">
-        <v>196875.27</v>
+        <v>196277.25</v>
       </c>
       <c r="K16" t="n">
-        <v>196710.17</v>
+        <v>196566.84</v>
       </c>
       <c r="L16" t="n">
-        <v>196861.91</v>
+        <v>218557.18</v>
       </c>
       <c r="M16" t="n">
-        <v>196402.57</v>
+        <v>218247.4</v>
+      </c>
+      <c r="N16" t="n">
+        <v>218735.6</v>
+      </c>
+      <c r="O16" t="n">
+        <v>203435.59</v>
+      </c>
+      <c r="P16" t="n">
+        <v>202754.55</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>184454.49</v>
+      </c>
+      <c r="R16" t="n">
+        <v>184634.27</v>
+      </c>
+      <c r="S16" t="n">
+        <v>184495.49</v>
+      </c>
+      <c r="T16" t="n">
+        <v>185667.22</v>
+      </c>
+      <c r="U16" t="n">
+        <v>184613.09</v>
+      </c>
+      <c r="V16" t="n">
+        <v>184557.8</v>
+      </c>
+      <c r="W16" t="n">
+        <v>184724.95</v>
+      </c>
+      <c r="X16" t="n">
+        <v>184617.07</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>184353.4</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>184583.63</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>184625</v>
       </c>
     </row>
     <row r="17">
@@ -1147,1250 +1817,2470 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2044193.98</v>
+        <v>1917344.49</v>
       </c>
       <c r="C17" t="n">
-        <v>2035251.4</v>
+        <v>1908811.55</v>
       </c>
       <c r="D17" t="n">
-        <v>2024747.26</v>
+        <v>1989142.51</v>
       </c>
       <c r="E17" t="n">
-        <v>1994650.8</v>
+        <v>1892911.07</v>
       </c>
       <c r="F17" t="n">
-        <v>1984907.08</v>
+        <v>1877844.95</v>
       </c>
       <c r="G17" t="n">
-        <v>1974597.92</v>
+        <v>1876378.97</v>
       </c>
       <c r="H17" t="n">
-        <v>1976807.89</v>
+        <v>1874639.97</v>
       </c>
       <c r="I17" t="n">
-        <v>1962599.55</v>
+        <v>1900575.79</v>
       </c>
       <c r="J17" t="n">
-        <v>1930844.13</v>
+        <v>1902362.41</v>
       </c>
       <c r="K17" t="n">
-        <v>1927706.98</v>
+        <v>1900248.63</v>
       </c>
       <c r="L17" t="n">
-        <v>1921574.32</v>
+        <v>1900248.92</v>
       </c>
       <c r="M17" t="n">
-        <v>1917344.49</v>
+        <v>1902009.6</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1901105.4</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1888911.43</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1885965.4</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1888252.16</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1862945.13</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1863222.03</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1878400.9</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1862063.99</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1873663.71</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1873029.48</v>
+      </c>
+      <c r="X17" t="n">
+        <v>1888003.84</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>1887443.36</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>1887452.81</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>1888262.89</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Acciones Argentina</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>1806775.34</v>
-      </c>
+          <t>Compass Crecimiento II</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="n">
-        <v>1352470.62</v>
-      </c>
-      <c r="E18" t="n">
-        <v>1352875.94</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1352904.63</v>
-      </c>
-      <c r="G18" t="n">
-        <v>1353842.07</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1352331.44</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1353920.21</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1353960.94</v>
-      </c>
-      <c r="K18" t="n">
-        <v>1352943.73</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1353707.45</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1255595.32</v>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="n">
+        <v>11235.01</v>
+      </c>
+      <c r="V18" t="n">
+        <v>11220.22</v>
+      </c>
+      <c r="W18" t="n">
+        <v>11227.76</v>
+      </c>
+      <c r="X18" t="n">
+        <v>11214.89</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>11233.66</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>11211.41</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>11214.59</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Renta Variable</t>
+          <t>Consultatio Acciones Argentina</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>759610.45</v>
-      </c>
-      <c r="C19" t="inlineStr"/>
+        <v>1255595.32</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1254795.82</v>
+      </c>
       <c r="D19" t="n">
-        <v>676616.1899999999</v>
+        <v>1312725.29</v>
       </c>
       <c r="E19" t="n">
-        <v>676748.47</v>
+        <v>1213606.25</v>
       </c>
       <c r="F19" t="n">
-        <v>677091.54</v>
+        <v>1120323.87</v>
       </c>
       <c r="G19" t="n">
-        <v>676469.3</v>
+        <v>1120930.95</v>
       </c>
       <c r="H19" t="n">
-        <v>676213.22</v>
+        <v>1120098.43</v>
       </c>
       <c r="I19" t="n">
-        <v>676348.6800000001</v>
+        <v>1122193.55</v>
       </c>
       <c r="J19" t="n">
-        <v>676691.05</v>
+        <v>1121305.01</v>
       </c>
       <c r="K19" t="n">
-        <v>676193.95</v>
+        <v>1076443.63</v>
       </c>
       <c r="L19" t="n">
-        <v>676312.0699999999</v>
+        <v>965783.83</v>
       </c>
       <c r="M19" t="n">
-        <v>676835.55</v>
+        <v>944718.21</v>
+      </c>
+      <c r="N19" t="n">
+        <v>944533.51</v>
+      </c>
+      <c r="O19" t="n">
+        <v>730099.9</v>
+      </c>
+      <c r="P19" t="n">
+        <v>729094.05</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>484365.78</v>
+      </c>
+      <c r="R19" t="n">
+        <v>485702.48</v>
+      </c>
+      <c r="S19" t="n">
+        <v>205159.75</v>
+      </c>
+      <c r="T19" t="n">
+        <v>207728.8</v>
+      </c>
+      <c r="U19" t="n">
+        <v>185877.62</v>
+      </c>
+      <c r="V19" t="n">
+        <v>186954.55</v>
+      </c>
+      <c r="W19" t="n">
+        <v>185967.41</v>
+      </c>
+      <c r="X19" t="n">
+        <v>185635.52</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>186135.86</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>186984.08</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>185625.52</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Delta Acciones</t>
+          <t>Consultatio Renta Variable</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>57514.45</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
+        <v>676835.55</v>
+      </c>
+      <c r="C20" t="n">
+        <v>566486.64</v>
+      </c>
       <c r="D20" t="n">
-        <v>57498.64</v>
+        <v>528951</v>
       </c>
       <c r="E20" t="n">
-        <v>57482.38</v>
+        <v>403175.73</v>
       </c>
       <c r="F20" t="n">
-        <v>57536.32</v>
+        <v>402741.43</v>
       </c>
       <c r="G20" t="n">
-        <v>57519.67</v>
+        <v>403137.37</v>
       </c>
       <c r="H20" t="n">
-        <v>57666.83</v>
+        <v>403247.15</v>
       </c>
       <c r="I20" t="n">
-        <v>57596.91</v>
+        <v>403154.26</v>
       </c>
       <c r="J20" t="n">
-        <v>57226.31</v>
+        <v>403511.58</v>
       </c>
       <c r="K20" t="n">
-        <v>57509.32</v>
+        <v>403437.07</v>
       </c>
       <c r="L20" t="n">
-        <v>57291.38</v>
+        <v>402979.75</v>
       </c>
       <c r="M20" t="n">
-        <v>57520.08</v>
+        <v>403225.07</v>
+      </c>
+      <c r="N20" t="n">
+        <v>402513.36</v>
+      </c>
+      <c r="O20" t="n">
+        <v>403078.92</v>
+      </c>
+      <c r="P20" t="n">
+        <v>402776.71</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>403247.77</v>
+      </c>
+      <c r="R20" t="n">
+        <v>402912.72</v>
+      </c>
+      <c r="S20" t="n">
+        <v>143449.53</v>
+      </c>
+      <c r="T20" t="n">
+        <v>143484.44</v>
+      </c>
+      <c r="U20" t="n">
+        <v>3328.66</v>
+      </c>
+      <c r="V20" t="n">
+        <v>3971.49</v>
+      </c>
+      <c r="W20" t="n">
+        <v>3983.82</v>
+      </c>
+      <c r="X20" t="n">
+        <v>3218.72</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>3852.85</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>3690.43</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>3417.36</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Delta Internacional</t>
+          <t>Delta Acciones</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>15998.35</v>
-      </c>
-      <c r="C21" t="inlineStr"/>
+        <v>57520.08</v>
+      </c>
+      <c r="C21" t="n">
+        <v>57294.22</v>
+      </c>
       <c r="D21" t="n">
-        <v>19259.31</v>
+        <v>60084.52</v>
       </c>
       <c r="E21" t="n">
-        <v>19247.41</v>
+        <v>57618.29</v>
       </c>
       <c r="F21" t="n">
-        <v>19250.38</v>
+        <v>57520.45</v>
       </c>
       <c r="G21" t="n">
-        <v>19242.33</v>
+        <v>57563.89</v>
       </c>
       <c r="H21" t="n">
-        <v>19244.94</v>
+        <v>57276.85</v>
       </c>
       <c r="I21" t="n">
-        <v>19266.87</v>
+        <v>57360.32</v>
       </c>
       <c r="J21" t="n">
-        <v>19258.99</v>
+        <v>57528.67</v>
       </c>
       <c r="K21" t="n">
-        <v>19268.35</v>
+        <v>57587.41</v>
       </c>
       <c r="L21" t="n">
-        <v>19247.92</v>
+        <v>57242.97</v>
       </c>
       <c r="M21" t="n">
-        <v>19252.15</v>
+        <v>57590.55</v>
+      </c>
+      <c r="N21" t="n">
+        <v>57343.03</v>
+      </c>
+      <c r="O21" t="n">
+        <v>57521.64</v>
+      </c>
+      <c r="P21" t="n">
+        <v>57394.93</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>57331.4</v>
+      </c>
+      <c r="R21" t="n">
+        <v>57354.69</v>
+      </c>
+      <c r="S21" t="n">
+        <v>57540.74</v>
+      </c>
+      <c r="T21" t="n">
+        <v>57339.15</v>
+      </c>
+      <c r="U21" t="n">
+        <v>23432.27</v>
+      </c>
+      <c r="V21" t="n">
+        <v>23263.79</v>
+      </c>
+      <c r="W21" t="n">
+        <v>23172</v>
+      </c>
+      <c r="X21" t="n">
+        <v>23288.07</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>19895.56</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>19768.28</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>19760.66</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Delta Latinoamerica</t>
+          <t>Delta Internacional</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>29750.4</v>
-      </c>
-      <c r="C22" t="inlineStr"/>
+        <v>19252.15</v>
+      </c>
+      <c r="C22" t="n">
+        <v>19261.76</v>
+      </c>
       <c r="D22" t="n">
-        <v>37876.65</v>
+        <v>20124.87</v>
       </c>
       <c r="E22" t="n">
-        <v>37893.5</v>
+        <v>11026.13</v>
       </c>
       <c r="F22" t="n">
-        <v>37890.91</v>
+        <v>11036.84</v>
       </c>
       <c r="G22" t="n">
-        <v>37870.15</v>
+        <v>11027.35</v>
       </c>
       <c r="H22" t="n">
-        <v>37900.39</v>
+        <v>11023.55</v>
       </c>
       <c r="I22" t="n">
-        <v>37876.3</v>
+        <v>11016.56</v>
       </c>
       <c r="J22" t="n">
-        <v>37872.42</v>
+        <v>11024.87</v>
       </c>
       <c r="K22" t="n">
-        <v>37884.58</v>
+        <v>11020.2</v>
       </c>
       <c r="L22" t="n">
-        <v>37877.45</v>
+        <v>11024.31</v>
       </c>
       <c r="M22" t="n">
-        <v>37888.35</v>
+        <v>11017.57</v>
+      </c>
+      <c r="N22" t="n">
+        <v>11019.08</v>
+      </c>
+      <c r="O22" t="n">
+        <v>11035.8</v>
+      </c>
+      <c r="P22" t="n">
+        <v>11034.44</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>11018.52</v>
+      </c>
+      <c r="R22" t="n">
+        <v>11030.53</v>
+      </c>
+      <c r="S22" t="n">
+        <v>11032.3</v>
+      </c>
+      <c r="T22" t="n">
+        <v>11028.18</v>
+      </c>
+      <c r="U22" t="n">
+        <v>11026.79</v>
+      </c>
+      <c r="V22" t="n">
+        <v>11017.67</v>
+      </c>
+      <c r="W22" t="n">
+        <v>11034.13</v>
+      </c>
+      <c r="X22" t="n">
+        <v>11032.2</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>11030.11</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>11033.45</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>11017.28</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>Delta Latinoamerica</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>477784.31</v>
-      </c>
-      <c r="C23" t="inlineStr"/>
+        <v>37888.35</v>
+      </c>
+      <c r="C23" t="n">
+        <v>37873.72</v>
+      </c>
       <c r="D23" t="n">
-        <v>471408.99</v>
+        <v>39605.94</v>
       </c>
       <c r="E23" t="n">
-        <v>462745.4</v>
+        <v>25532.86</v>
       </c>
       <c r="F23" t="n">
-        <v>462549.27</v>
+        <v>25528.58</v>
       </c>
       <c r="G23" t="n">
-        <v>464267.34</v>
+        <v>25517.08</v>
       </c>
       <c r="H23" t="n">
-        <v>463151.91</v>
+        <v>25522.65</v>
       </c>
       <c r="I23" t="n">
-        <v>463479.53</v>
+        <v>25543.45</v>
       </c>
       <c r="J23" t="n">
-        <v>464774.45</v>
+        <v>25526.68</v>
       </c>
       <c r="K23" t="n">
-        <v>462559.61</v>
+        <v>25519.42</v>
       </c>
       <c r="L23" t="n">
-        <v>463485.91</v>
+        <v>25527.06</v>
       </c>
       <c r="M23" t="n">
-        <v>464239.59</v>
+        <v>25533.44</v>
+      </c>
+      <c r="N23" t="n">
+        <v>25537.52</v>
+      </c>
+      <c r="O23" t="n">
+        <v>25527.54</v>
+      </c>
+      <c r="P23" t="n">
+        <v>25532.11</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>25525.82</v>
+      </c>
+      <c r="R23" t="n">
+        <v>25532.56</v>
+      </c>
+      <c r="S23" t="n">
+        <v>25520</v>
+      </c>
+      <c r="T23" t="n">
+        <v>25532.24</v>
+      </c>
+      <c r="U23" t="n">
+        <v>25513.26</v>
+      </c>
+      <c r="V23" t="n">
+        <v>25515.43</v>
+      </c>
+      <c r="W23" t="n">
+        <v>25524.88</v>
+      </c>
+      <c r="X23" t="n">
+        <v>25536.48</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>25536.65</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>25530.34</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>25533.06</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>611641.45</v>
-      </c>
-      <c r="C24" t="inlineStr"/>
+        <v>464239.59</v>
+      </c>
+      <c r="C24" t="n">
+        <v>462430.79</v>
+      </c>
       <c r="D24" t="n">
-        <v>639554.78</v>
+        <v>484137.05</v>
       </c>
       <c r="E24" t="n">
-        <v>690681.27</v>
+        <v>463198.67</v>
       </c>
       <c r="F24" t="n">
-        <v>714319.46</v>
+        <v>507033.93</v>
       </c>
       <c r="G24" t="n">
-        <v>724282.86</v>
+        <v>507515.67</v>
       </c>
       <c r="H24" t="n">
-        <v>724431.5</v>
+        <v>507610.31</v>
       </c>
       <c r="I24" t="n">
-        <v>689989.47</v>
+        <v>505656.32</v>
       </c>
       <c r="J24" t="n">
-        <v>684835.1899999999</v>
+        <v>507171.51</v>
       </c>
       <c r="K24" t="n">
-        <v>663278.58</v>
+        <v>507324.03</v>
       </c>
       <c r="L24" t="n">
-        <v>654869.75</v>
+        <v>507659.71</v>
       </c>
       <c r="M24" t="n">
-        <v>655734.75</v>
+        <v>506179.69</v>
+      </c>
+      <c r="N24" t="n">
+        <v>506651.44</v>
+      </c>
+      <c r="O24" t="n">
+        <v>505688.63</v>
+      </c>
+      <c r="P24" t="n">
+        <v>507417.23</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>507242.75</v>
+      </c>
+      <c r="R24" t="n">
+        <v>506697.81</v>
+      </c>
+      <c r="S24" t="n">
+        <v>506377.06</v>
+      </c>
+      <c r="T24" t="n">
+        <v>505798.4</v>
+      </c>
+      <c r="U24" t="n">
+        <v>404830.24</v>
+      </c>
+      <c r="V24" t="n">
+        <v>406698.04</v>
+      </c>
+      <c r="W24" t="n">
+        <v>405328.45</v>
+      </c>
+      <c r="X24" t="n">
+        <v>404768.48</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>405807.85</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>405152.6</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>405132.4</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>FBA Acciones Argentinas</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>601642.11</v>
-      </c>
-      <c r="C25" t="inlineStr"/>
+        <v>655734.75</v>
+      </c>
+      <c r="C25" t="n">
+        <v>655036.85</v>
+      </c>
       <c r="D25" t="n">
-        <v>652523.27</v>
+        <v>684441.22</v>
       </c>
       <c r="E25" t="n">
-        <v>659189.73</v>
+        <v>654914</v>
       </c>
       <c r="F25" t="n">
-        <v>659074.29</v>
+        <v>699550.91</v>
       </c>
       <c r="G25" t="n">
-        <v>668256.76</v>
+        <v>760891.0600000001</v>
       </c>
       <c r="H25" t="n">
-        <v>669454.79</v>
+        <v>760334.0600000001</v>
       </c>
       <c r="I25" t="n">
-        <v>653530.89</v>
+        <v>778210.74</v>
       </c>
       <c r="J25" t="n">
-        <v>639080.25</v>
+        <v>801894.8199999999</v>
       </c>
       <c r="K25" t="n">
-        <v>638064.58</v>
+        <v>808799.9300000001</v>
       </c>
       <c r="L25" t="n">
-        <v>621581.1899999999</v>
+        <v>819593.8</v>
       </c>
       <c r="M25" t="n">
-        <v>622591.0600000001</v>
+        <v>819927.49</v>
+      </c>
+      <c r="N25" t="n">
+        <v>820589.01</v>
+      </c>
+      <c r="O25" t="n">
+        <v>848099.5600000001</v>
+      </c>
+      <c r="P25" t="n">
+        <v>883306.33</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>902109.74</v>
+      </c>
+      <c r="R25" t="n">
+        <v>944956.38</v>
+      </c>
+      <c r="S25" t="n">
+        <v>944930.49</v>
+      </c>
+      <c r="T25" t="n">
+        <v>913426.91</v>
+      </c>
+      <c r="U25" t="n">
+        <v>923865.42</v>
+      </c>
+      <c r="V25" t="n">
+        <v>958940.5</v>
+      </c>
+      <c r="W25" t="n">
+        <v>993891.01</v>
+      </c>
+      <c r="X25" t="n">
+        <v>1032886.09</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>967308.86</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>1007401.17</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>964690.66</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>613831.85</v>
-      </c>
-      <c r="C26" t="inlineStr"/>
+        <v>622591.0600000001</v>
+      </c>
+      <c r="C26" t="n">
+        <v>622763.86</v>
+      </c>
       <c r="D26" t="n">
-        <v>894207.87</v>
+        <v>650583.23</v>
       </c>
       <c r="E26" t="n">
-        <v>979939.37</v>
+        <v>602694.5</v>
       </c>
       <c r="F26" t="n">
-        <v>969234.1800000001</v>
+        <v>668082.3199999999</v>
       </c>
       <c r="G26" t="n">
-        <v>966837.74</v>
+        <v>712420.38</v>
       </c>
       <c r="H26" t="n">
-        <v>967559.23</v>
+        <v>716104.6800000001</v>
       </c>
       <c r="I26" t="n">
-        <v>956846.5</v>
+        <v>723033.6</v>
       </c>
       <c r="J26" t="n">
-        <v>945036.96</v>
+        <v>780846.58</v>
       </c>
       <c r="K26" t="n">
-        <v>945760.61</v>
+        <v>779869.33</v>
       </c>
       <c r="L26" t="n">
-        <v>954333.62</v>
+        <v>800975.71</v>
       </c>
       <c r="M26" t="n">
-        <v>985446.1800000001</v>
+        <v>819324.11</v>
+      </c>
+      <c r="N26" t="n">
+        <v>828982.7</v>
+      </c>
+      <c r="O26" t="n">
+        <v>835123.84</v>
+      </c>
+      <c r="P26" t="n">
+        <v>880024.23</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>898070.09</v>
+      </c>
+      <c r="R26" t="n">
+        <v>897210.83</v>
+      </c>
+      <c r="S26" t="n">
+        <v>888596.4</v>
+      </c>
+      <c r="T26" t="n">
+        <v>876586.5699999999</v>
+      </c>
+      <c r="U26" t="n">
+        <v>869953.58</v>
+      </c>
+      <c r="V26" t="n">
+        <v>873795.25</v>
+      </c>
+      <c r="W26" t="n">
+        <v>920475.28</v>
+      </c>
+      <c r="X26" t="n">
+        <v>932847.36</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>883396.64</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>947864.03</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>943931.54</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>215635.15</v>
+        <v>985446.1800000001</v>
       </c>
       <c r="C27" t="n">
-        <v>458092.97</v>
+        <v>984268.54</v>
       </c>
       <c r="D27" t="n">
-        <v>467544.09</v>
+        <v>1029706.64</v>
       </c>
       <c r="E27" t="n">
-        <v>470667.3</v>
+        <v>970789.58</v>
       </c>
       <c r="F27" t="n">
-        <v>502718.04</v>
+        <v>1034984.73</v>
       </c>
       <c r="G27" t="n">
-        <v>503577.65</v>
+        <v>1066792.81</v>
       </c>
       <c r="H27" t="n">
-        <v>504094.39</v>
+        <v>1049555.73</v>
       </c>
       <c r="I27" t="n">
-        <v>502688.84</v>
+        <v>1104266.82</v>
       </c>
       <c r="J27" t="n">
-        <v>502715.15</v>
+        <v>1173338.51</v>
       </c>
       <c r="K27" t="n">
-        <v>503962.14</v>
+        <v>1185877.12</v>
       </c>
       <c r="L27" t="n">
-        <v>527915.3100000001</v>
+        <v>1185772.91</v>
       </c>
       <c r="M27" t="n">
-        <v>578861.1899999999</v>
+        <v>1197418.57</v>
+      </c>
+      <c r="N27" t="n">
+        <v>1125677.62</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1125175.29</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1126418</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1160494.8</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1202435.39</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1407665.11</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1408474.41</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1476505.35</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1578767.3</v>
+      </c>
+      <c r="W27" t="n">
+        <v>1697028.55</v>
+      </c>
+      <c r="X27" t="n">
+        <v>1774873.09</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>1684577.87</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>1742782.62</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>1601641.08</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Gainvest Renta Variable</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95932.97</v>
+        <v>578861.1899999999</v>
       </c>
       <c r="C28" t="n">
-        <v>95762.06</v>
+        <v>629107.39</v>
       </c>
       <c r="D28" t="n">
-        <v>96347.05</v>
+        <v>655961.86</v>
       </c>
       <c r="E28" t="n">
-        <v>96066.91</v>
+        <v>598132.87</v>
       </c>
       <c r="F28" t="n">
-        <v>95882.91</v>
+        <v>608357.17</v>
       </c>
       <c r="G28" t="n">
-        <v>96267.95</v>
+        <v>605746.91</v>
       </c>
       <c r="H28" t="n">
-        <v>96147.23</v>
+        <v>605824.85</v>
       </c>
       <c r="I28" t="n">
-        <v>95809.41</v>
+        <v>618896.97</v>
       </c>
       <c r="J28" t="n">
-        <v>96059.37</v>
+        <v>749849.37</v>
       </c>
       <c r="K28" t="n">
-        <v>95856</v>
+        <v>748917.65</v>
       </c>
       <c r="L28" t="n">
-        <v>96047.78999999999</v>
+        <v>749021.35</v>
       </c>
       <c r="M28" t="n">
-        <v>96034.59</v>
+        <v>749822.78</v>
+      </c>
+      <c r="N28" t="n">
+        <v>749491.8100000001</v>
+      </c>
+      <c r="O28" t="n">
+        <v>699204.03</v>
+      </c>
+      <c r="P28" t="n">
+        <v>702468.75</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>704611.97</v>
+      </c>
+      <c r="R28" t="n">
+        <v>728532.79</v>
+      </c>
+      <c r="S28" t="n">
+        <v>918974.6899999999</v>
+      </c>
+      <c r="T28" t="n">
+        <v>918307.36</v>
+      </c>
+      <c r="U28" t="n">
+        <v>917837.7</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1018434.71</v>
+      </c>
+      <c r="W28" t="n">
+        <v>1060779.83</v>
+      </c>
+      <c r="X28" t="n">
+        <v>1084204.97</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>1070015.7</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>1089790.2</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>1074704.62</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Galileo Acciones</t>
+          <t>Gainvest Renta Variable</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1943145.83</v>
+        <v>96034.59</v>
       </c>
       <c r="C29" t="n">
-        <v>1942133.3</v>
+        <v>96270.21000000001</v>
       </c>
       <c r="D29" t="n">
-        <v>1944921.58</v>
+        <v>100569.69</v>
       </c>
       <c r="E29" t="n">
-        <v>1946633.34</v>
+        <v>96162.75</v>
       </c>
       <c r="F29" t="n">
-        <v>1947682.2</v>
+        <v>96117.28999999999</v>
       </c>
       <c r="G29" t="n">
-        <v>1946620.01</v>
+        <v>96040.69</v>
       </c>
       <c r="H29" t="n">
-        <v>1497425.96</v>
+        <v>96318.86</v>
       </c>
       <c r="I29" t="n">
-        <v>1501919.81</v>
+        <v>96035.55</v>
       </c>
       <c r="J29" t="n">
-        <v>1223321.24</v>
+        <v>96150.78999999999</v>
       </c>
       <c r="K29" t="n">
-        <v>1001351.96</v>
+        <v>96168.38</v>
       </c>
       <c r="L29" t="n">
-        <v>999025.1899999999</v>
+        <v>95961.69</v>
       </c>
       <c r="M29" t="n">
-        <v>998021.2</v>
+        <v>96074.58</v>
+      </c>
+      <c r="N29" t="n">
+        <v>95923.02</v>
+      </c>
+      <c r="O29" t="n">
+        <v>95864.32000000001</v>
+      </c>
+      <c r="P29" t="n">
+        <v>95940.92999999999</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>96217.67</v>
+      </c>
+      <c r="R29" t="n">
+        <v>96176.82000000001</v>
+      </c>
+      <c r="S29" t="n">
+        <v>96189.55</v>
+      </c>
+      <c r="T29" t="n">
+        <v>96119.39999999999</v>
+      </c>
+      <c r="U29" t="n">
+        <v>96254.59</v>
+      </c>
+      <c r="V29" t="n">
+        <v>96273.19</v>
+      </c>
+      <c r="W29" t="n">
+        <v>95924.81</v>
+      </c>
+      <c r="X29" t="n">
+        <v>95868.89999999999</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>96032.53999999999</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>96272.28</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>96215.45</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Goal Acciones Argentinas</t>
+          <t>Galileo Acciones</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>69522.91</v>
+        <v>998021.2</v>
       </c>
       <c r="C30" t="n">
-        <v>69504.27</v>
+        <v>1000682.5</v>
       </c>
       <c r="D30" t="n">
-        <v>63551.75</v>
+        <v>1046871.56</v>
       </c>
       <c r="E30" t="n">
-        <v>63615.34</v>
+        <v>999539.61</v>
       </c>
       <c r="F30" t="n">
-        <v>63612.78</v>
+        <v>1001180.66</v>
       </c>
       <c r="G30" t="n">
-        <v>63545.05</v>
-      </c>
-      <c r="H30" t="n">
-        <v>63500.08</v>
-      </c>
-      <c r="I30" t="n">
-        <v>63615.52</v>
-      </c>
-      <c r="J30" t="n">
-        <v>63606.52</v>
-      </c>
-      <c r="K30" t="n">
-        <v>63494.74</v>
-      </c>
-      <c r="L30" t="n">
-        <v>63637.31</v>
-      </c>
-      <c r="M30" t="n">
-        <v>63560.44</v>
-      </c>
+        <v>1000293.73</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
+      <c r="X30" t="inlineStr"/>
+      <c r="Y30" t="inlineStr"/>
+      <c r="Z30" t="inlineStr"/>
+      <c r="AA30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>Goal Acciones Argentinas</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24510.69</v>
+        <v>63560.44</v>
       </c>
       <c r="C31" t="n">
-        <v>24517.51</v>
+        <v>63488.05</v>
       </c>
       <c r="D31" t="n">
-        <v>24488.73</v>
+        <v>66471.52</v>
       </c>
       <c r="E31" t="n">
-        <v>24520.26</v>
+        <v>63684.42</v>
       </c>
       <c r="F31" t="n">
-        <v>24495.6</v>
+        <v>63692.96</v>
       </c>
       <c r="G31" t="n">
-        <v>24482.28</v>
+        <v>88659.95</v>
       </c>
       <c r="H31" t="n">
-        <v>24511.55</v>
+        <v>88622.69</v>
       </c>
       <c r="I31" t="n">
-        <v>24470.96</v>
+        <v>88541.71000000001</v>
       </c>
       <c r="J31" t="n">
-        <v>24517.82</v>
+        <v>88598.60000000001</v>
       </c>
       <c r="K31" t="n">
-        <v>24518.19</v>
+        <v>98575.58</v>
       </c>
       <c r="L31" t="n">
-        <v>24501.6</v>
+        <v>98609.98</v>
       </c>
       <c r="M31" t="n">
-        <v>34496.13</v>
+        <v>98706.99000000001</v>
+      </c>
+      <c r="N31" t="n">
+        <v>98716</v>
+      </c>
+      <c r="O31" t="n">
+        <v>98653.89</v>
+      </c>
+      <c r="P31" t="n">
+        <v>98497.86</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>118515.11</v>
+      </c>
+      <c r="R31" t="n">
+        <v>148654.4</v>
+      </c>
+      <c r="S31" t="n">
+        <v>148572.59</v>
+      </c>
+      <c r="T31" t="n">
+        <v>148575.09</v>
+      </c>
+      <c r="U31" t="n">
+        <v>148482.38</v>
+      </c>
+      <c r="V31" t="n">
+        <v>148580.26</v>
+      </c>
+      <c r="W31" t="n">
+        <v>148658.6</v>
+      </c>
+      <c r="X31" t="n">
+        <v>173695.05</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>198573.6</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>198663.67</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>183692.98</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>330422.7</v>
+        <v>34496.13</v>
       </c>
       <c r="C32" t="n">
-        <v>330584.64</v>
+        <v>34478.93</v>
       </c>
       <c r="D32" t="n">
-        <v>330716.74</v>
+        <v>36030.7</v>
       </c>
       <c r="E32" t="n">
-        <v>330368.44</v>
+        <v>34492.05</v>
       </c>
       <c r="F32" t="n">
-        <v>330541.83</v>
+        <v>34529.26</v>
       </c>
       <c r="G32" t="n">
-        <v>320771.11</v>
+        <v>34504.76</v>
       </c>
       <c r="H32" t="n">
-        <v>320300.06</v>
+        <v>34525.35</v>
       </c>
       <c r="I32" t="n">
-        <v>285719.68</v>
+        <v>34524.13</v>
       </c>
       <c r="J32" t="n">
-        <v>275526.32</v>
+        <v>34500.15</v>
       </c>
       <c r="K32" t="n">
-        <v>265227.33</v>
+        <v>34472.45</v>
       </c>
       <c r="L32" t="n">
-        <v>245765.65</v>
+        <v>34486.11</v>
       </c>
       <c r="M32" t="n">
-        <v>245349.43</v>
+        <v>34512.42</v>
+      </c>
+      <c r="N32" t="n">
+        <v>34473.19</v>
+      </c>
+      <c r="O32" t="n">
+        <v>34502.26</v>
+      </c>
+      <c r="P32" t="n">
+        <v>34505.02</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>34492.54</v>
+      </c>
+      <c r="R32" t="n">
+        <v>34467.75</v>
+      </c>
+      <c r="S32" t="n">
+        <v>34482.78</v>
+      </c>
+      <c r="T32" t="n">
+        <v>34531.08</v>
+      </c>
+      <c r="U32" t="n">
+        <v>34520.31</v>
+      </c>
+      <c r="V32" t="n">
+        <v>34496.47</v>
+      </c>
+      <c r="W32" t="n">
+        <v>34520.11</v>
+      </c>
+      <c r="X32" t="n">
+        <v>34480.36</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>34518.41</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>34518.96</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>34519.65</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>584953.8</v>
+        <v>245349.43</v>
       </c>
       <c r="C33" t="n">
-        <v>563917.42</v>
+        <v>235640.96</v>
       </c>
       <c r="D33" t="n">
-        <v>469304.61</v>
+        <v>246076.32</v>
       </c>
       <c r="E33" t="n">
-        <v>469741.89</v>
+        <v>235749.02</v>
       </c>
       <c r="F33" t="n">
-        <v>469312.16</v>
+        <v>245714.76</v>
       </c>
       <c r="G33" t="n">
-        <v>469676.12</v>
+        <v>230660.15</v>
       </c>
       <c r="H33" t="n">
-        <v>469460.94</v>
+        <v>230560.38</v>
       </c>
       <c r="I33" t="n">
-        <v>469220.1</v>
+        <v>240516.61</v>
       </c>
       <c r="J33" t="n">
-        <v>469670</v>
+        <v>240715.95</v>
       </c>
       <c r="K33" t="n">
-        <v>469764.23</v>
+        <v>240489.46</v>
       </c>
       <c r="L33" t="n">
-        <v>449653.4</v>
+        <v>240332.19</v>
       </c>
       <c r="M33" t="n">
-        <v>449394.39</v>
+        <v>240467.98</v>
+      </c>
+      <c r="N33" t="n">
+        <v>240582.01</v>
+      </c>
+      <c r="O33" t="n">
+        <v>240808.01</v>
+      </c>
+      <c r="P33" t="n">
+        <v>240627.11</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>240518.15</v>
+      </c>
+      <c r="R33" t="n">
+        <v>240387.25</v>
+      </c>
+      <c r="S33" t="n">
+        <v>265282.12</v>
+      </c>
+      <c r="T33" t="n">
+        <v>265276.75</v>
+      </c>
+      <c r="U33" t="n">
+        <v>250689.31</v>
+      </c>
+      <c r="V33" t="n">
+        <v>250367.16</v>
+      </c>
+      <c r="W33" t="n">
+        <v>250498.26</v>
+      </c>
+      <c r="X33" t="n">
+        <v>280704.56</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>270726.92</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>260711.72</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>295510.49</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>IAM Renta Variable</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>114976.16</v>
+        <v>449394.39</v>
       </c>
       <c r="C34" t="n">
-        <v>120265.95</v>
+        <v>449835.23</v>
       </c>
       <c r="D34" t="n">
-        <v>154369.91</v>
+        <v>470304.91</v>
       </c>
       <c r="E34" t="n">
-        <v>161544.86</v>
+        <v>449317.92</v>
       </c>
       <c r="F34" t="n">
-        <v>160255.42</v>
+        <v>449657.43</v>
       </c>
       <c r="G34" t="n">
-        <v>160345.83</v>
+        <v>474845.26</v>
       </c>
       <c r="H34" t="n">
-        <v>190178.49</v>
+        <v>475057.81</v>
       </c>
       <c r="I34" t="n">
-        <v>190331.07</v>
+        <v>504399.92</v>
       </c>
       <c r="J34" t="n">
-        <v>190497.58</v>
+        <v>544364.14</v>
       </c>
       <c r="K34" t="n">
-        <v>190219.11</v>
+        <v>544109.52</v>
       </c>
       <c r="L34" t="n">
-        <v>189066.75</v>
+        <v>544258.36</v>
       </c>
       <c r="M34" t="n">
-        <v>166586.33</v>
+        <v>544280.22</v>
+      </c>
+      <c r="N34" t="n">
+        <v>544007.67</v>
+      </c>
+      <c r="O34" t="n">
+        <v>544854.9300000001</v>
+      </c>
+      <c r="P34" t="n">
+        <v>546765.98</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>547188.03</v>
+      </c>
+      <c r="R34" t="n">
+        <v>547165.9399999999</v>
+      </c>
+      <c r="S34" t="n">
+        <v>547272.52</v>
+      </c>
+      <c r="T34" t="n">
+        <v>546521.5600000001</v>
+      </c>
+      <c r="U34" t="n">
+        <v>562231.78</v>
+      </c>
+      <c r="V34" t="n">
+        <v>561524.17</v>
+      </c>
+      <c r="W34" t="n">
+        <v>562084.37</v>
+      </c>
+      <c r="X34" t="n">
+        <v>562243.91</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>547609.86</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>517658</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>532370.35</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>IEB Value</t>
+          <t>IAM Renta Variable</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>22658.35</v>
+        <v>166586.33</v>
       </c>
       <c r="C35" t="n">
-        <v>22642.85</v>
+        <v>166626.64</v>
       </c>
       <c r="D35" t="n">
-        <v>25572.62</v>
+        <v>169254.14</v>
       </c>
       <c r="E35" t="n">
-        <v>25604.97</v>
+        <v>160328.64</v>
       </c>
       <c r="F35" t="n">
-        <v>25572.71</v>
+        <v>163189.1</v>
       </c>
       <c r="G35" t="n">
-        <v>25612.83</v>
+        <v>172957.68</v>
       </c>
       <c r="H35" t="n">
-        <v>25577.18</v>
+        <v>178288.68</v>
       </c>
       <c r="I35" t="n">
-        <v>25612.74</v>
+        <v>184366.19</v>
       </c>
       <c r="J35" t="n">
-        <v>25579.29</v>
+        <v>187422.29</v>
       </c>
       <c r="K35" t="n">
-        <v>25602.45</v>
+        <v>196998.42</v>
       </c>
       <c r="L35" t="n">
-        <v>25601.53</v>
+        <v>196952.61</v>
       </c>
       <c r="M35" t="n">
-        <v>25599.87</v>
+        <v>228637.74</v>
+      </c>
+      <c r="N35" t="n">
+        <v>228914.57</v>
+      </c>
+      <c r="O35" t="n">
+        <v>234493.11</v>
+      </c>
+      <c r="P35" t="n">
+        <v>240572.9</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>240068.2</v>
+      </c>
+      <c r="R35" t="n">
+        <v>240284.09</v>
+      </c>
+      <c r="S35" t="n">
+        <v>240388.84</v>
+      </c>
+      <c r="T35" t="n">
+        <v>211008.63</v>
+      </c>
+      <c r="U35" t="n">
+        <v>182354.43</v>
+      </c>
+      <c r="V35" t="n">
+        <v>178388.8</v>
+      </c>
+      <c r="W35" t="n">
+        <v>174449.39</v>
+      </c>
+      <c r="X35" t="n">
+        <v>181399.33</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>149172.47</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>163215.74</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>163065.95</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>IEB Value</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>105680.69</v>
+        <v>25599.87</v>
       </c>
       <c r="C36" t="n">
-        <v>105793.94</v>
+        <v>24924.76</v>
       </c>
       <c r="D36" t="n">
-        <v>105548.48</v>
+        <v>26077.52</v>
       </c>
       <c r="E36" t="n">
-        <v>119994.36</v>
+        <v>24952.77</v>
       </c>
       <c r="F36" t="n">
-        <v>135081.63</v>
+        <v>24951.05</v>
       </c>
       <c r="G36" t="n">
-        <v>135011.99</v>
+        <v>24948.36</v>
       </c>
       <c r="H36" t="n">
-        <v>135058.39</v>
+        <v>24948.71</v>
       </c>
       <c r="I36" t="n">
-        <v>145131.06</v>
+        <v>24934.26</v>
       </c>
       <c r="J36" t="n">
-        <v>120092.97</v>
+        <v>24954.89</v>
       </c>
       <c r="K36" t="n">
-        <v>120076.63</v>
+        <v>24950.44</v>
       </c>
       <c r="L36" t="n">
-        <v>114668.4</v>
+        <v>24931.95</v>
       </c>
       <c r="M36" t="n">
-        <v>114122.72</v>
+        <v>24944.26</v>
+      </c>
+      <c r="N36" t="n">
+        <v>24922.71</v>
+      </c>
+      <c r="O36" t="n">
+        <v>24946.04</v>
+      </c>
+      <c r="P36" t="n">
+        <v>24947.56</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>24922.69</v>
+      </c>
+      <c r="R36" t="n">
+        <v>24956.55</v>
+      </c>
+      <c r="S36" t="n">
+        <v>24925.33</v>
+      </c>
+      <c r="T36" t="n">
+        <v>25102.73</v>
+      </c>
+      <c r="U36" t="n">
+        <v>24929.69</v>
+      </c>
+      <c r="V36" t="n">
+        <v>24946.51</v>
+      </c>
+      <c r="W36" t="n">
+        <v>24932.61</v>
+      </c>
+      <c r="X36" t="n">
+        <v>23565.61</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>15564.31</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>15561.5</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>15575.56</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>248774.94</v>
+        <v>114122.72</v>
       </c>
       <c r="C37" t="n">
-        <v>248946.29</v>
+        <v>114351.69</v>
       </c>
       <c r="D37" t="n">
-        <v>248943.45</v>
+        <v>119345.39</v>
       </c>
       <c r="E37" t="n">
-        <v>248852.33</v>
+        <v>114201.14</v>
       </c>
       <c r="F37" t="n">
-        <v>248813.27</v>
+        <v>152065.36</v>
       </c>
       <c r="G37" t="n">
-        <v>248758.39</v>
+        <v>152301.53</v>
       </c>
       <c r="H37" t="n">
-        <v>248980.01</v>
+        <v>151893.01</v>
       </c>
       <c r="I37" t="n">
-        <v>248744.99</v>
+        <v>151856.2</v>
       </c>
       <c r="J37" t="n">
-        <v>248726.16</v>
+        <v>88027.34</v>
       </c>
       <c r="K37" t="n">
-        <v>248724.51</v>
+        <v>88025.34</v>
       </c>
       <c r="L37" t="n">
-        <v>248968.04</v>
+        <v>87853.38</v>
       </c>
       <c r="M37" t="n">
-        <v>248823.19</v>
+        <v>87897.89999999999</v>
+      </c>
+      <c r="N37" t="n">
+        <v>95939.61</v>
+      </c>
+      <c r="O37" t="n">
+        <v>96145.59</v>
+      </c>
+      <c r="P37" t="n">
+        <v>95979.53999999999</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>95834.44</v>
+      </c>
+      <c r="R37" t="n">
+        <v>96108.95</v>
+      </c>
+      <c r="S37" t="n">
+        <v>121482.24</v>
+      </c>
+      <c r="T37" t="n">
+        <v>132746.47</v>
+      </c>
+      <c r="U37" t="n">
+        <v>132570.65</v>
+      </c>
+      <c r="V37" t="n">
+        <v>167109.12</v>
+      </c>
+      <c r="W37" t="n">
+        <v>215402.86</v>
+      </c>
+      <c r="X37" t="n">
+        <v>219971.31</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>221583.05</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>221325.66</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>214187.07</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Megainver</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>99369.00999999999</v>
+        <v>248823.19</v>
       </c>
       <c r="C38" t="n">
-        <v>99476.06</v>
+        <v>248726.32</v>
       </c>
       <c r="D38" t="n">
-        <v>73153.64</v>
+        <v>260037.32</v>
       </c>
       <c r="E38" t="n">
-        <v>73189.88</v>
+        <v>248865.5</v>
       </c>
       <c r="F38" t="n">
-        <v>73201.53999999999</v>
+        <v>248826.6</v>
       </c>
       <c r="G38" t="n">
-        <v>96654.77</v>
+        <v>248781.69</v>
       </c>
       <c r="H38" t="n">
-        <v>96794.8</v>
+        <v>248912.88</v>
       </c>
       <c r="I38" t="n">
-        <v>96802.31</v>
+        <v>248810.93</v>
       </c>
       <c r="J38" t="n">
-        <v>96717.49000000001</v>
+        <v>248773.93</v>
       </c>
       <c r="K38" t="n">
-        <v>96711.98</v>
+        <v>248910.01</v>
       </c>
       <c r="L38" t="n">
-        <v>96649.74000000001</v>
+        <v>248743.23</v>
       </c>
       <c r="M38" t="n">
-        <v>96788.38</v>
+        <v>248854.46</v>
+      </c>
+      <c r="N38" t="n">
+        <v>248775.59</v>
+      </c>
+      <c r="O38" t="n">
+        <v>248945.23</v>
+      </c>
+      <c r="P38" t="n">
+        <v>248730.97</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>262921.17</v>
+      </c>
+      <c r="R38" t="n">
+        <v>262888.97</v>
+      </c>
+      <c r="S38" t="n">
+        <v>262886.73</v>
+      </c>
+      <c r="T38" t="n">
+        <v>262723.17</v>
+      </c>
+      <c r="U38" t="n">
+        <v>212737.88</v>
+      </c>
+      <c r="V38" t="n">
+        <v>212882.82</v>
+      </c>
+      <c r="W38" t="n">
+        <v>212812.78</v>
+      </c>
+      <c r="X38" t="n">
+        <v>212980.89</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>212889.79</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>212919.51</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>212884.11</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>Megainver</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>220924.8</v>
-      </c>
-      <c r="C39" t="inlineStr"/>
+        <v>96788.38</v>
+      </c>
+      <c r="C39" t="n">
+        <v>96707.91</v>
+      </c>
       <c r="D39" t="n">
-        <v>221336.87</v>
+        <v>101038.85</v>
       </c>
       <c r="E39" t="n">
-        <v>220976.87</v>
+        <v>96625.48</v>
       </c>
       <c r="F39" t="n">
-        <v>221209.67</v>
+        <v>96765.37</v>
       </c>
       <c r="G39" t="n">
-        <v>316438.6</v>
+        <v>96637.83</v>
       </c>
       <c r="H39" t="n">
-        <v>335915.03</v>
+        <v>87437.67999999999</v>
       </c>
       <c r="I39" t="n">
-        <v>335662.86</v>
+        <v>87462.39999999999</v>
       </c>
       <c r="J39" t="n">
-        <v>336229.01</v>
+        <v>87479.42</v>
       </c>
       <c r="K39" t="n">
-        <v>336404.04</v>
+        <v>87490.23</v>
       </c>
       <c r="L39" t="n">
-        <v>335970.18</v>
+        <v>87389.32000000001</v>
       </c>
       <c r="M39" t="n">
-        <v>333793.46</v>
+        <v>87383.87</v>
+      </c>
+      <c r="N39" t="n">
+        <v>87438.67999999999</v>
+      </c>
+      <c r="O39" t="n">
+        <v>87531.31</v>
+      </c>
+      <c r="P39" t="n">
+        <v>87367.97</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>87544.53999999999</v>
+      </c>
+      <c r="R39" t="n">
+        <v>87515.42999999999</v>
+      </c>
+      <c r="S39" t="n">
+        <v>87516.92</v>
+      </c>
+      <c r="T39" t="n">
+        <v>87473.02</v>
+      </c>
+      <c r="U39" t="n">
+        <v>87514.75</v>
+      </c>
+      <c r="V39" t="n">
+        <v>106598.53</v>
+      </c>
+      <c r="W39" t="n">
+        <v>130319.79</v>
+      </c>
+      <c r="X39" t="n">
+        <v>130371.83</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>130376.32</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>134633.97</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>134511.05</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>399231.85</v>
+        <v>333793.46</v>
       </c>
       <c r="C40" t="n">
-        <v>398675.83</v>
+        <v>333631.66</v>
       </c>
       <c r="D40" t="n">
-        <v>399158.52</v>
+        <v>348811.89</v>
       </c>
       <c r="E40" t="n">
-        <v>398497.8</v>
+        <v>333440.32</v>
       </c>
       <c r="F40" t="n">
-        <v>399378.2</v>
+        <v>333595.26</v>
       </c>
       <c r="G40" t="n">
-        <v>399262.44</v>
+        <v>333645.16</v>
       </c>
       <c r="H40" t="n">
-        <v>399279.59</v>
+        <v>333613.04</v>
       </c>
       <c r="I40" t="n">
-        <v>399055.01</v>
+        <v>333209.73</v>
       </c>
       <c r="J40" t="n">
-        <v>399206.85</v>
+        <v>333457.15</v>
       </c>
       <c r="K40" t="n">
-        <v>399447.02</v>
+        <v>333482.95</v>
       </c>
       <c r="L40" t="n">
-        <v>399601.09</v>
+        <v>333845.95</v>
       </c>
       <c r="M40" t="n">
-        <v>399589.88</v>
+        <v>333817.28</v>
+      </c>
+      <c r="N40" t="n">
+        <v>389119.05</v>
+      </c>
+      <c r="O40" t="n">
+        <v>388986.21</v>
+      </c>
+      <c r="P40" t="n">
+        <v>388966.04</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>389091.69</v>
+      </c>
+      <c r="R40" t="n">
+        <v>388775.65</v>
+      </c>
+      <c r="S40" t="n">
+        <v>389373.19</v>
+      </c>
+      <c r="T40" t="n">
+        <v>388865.16</v>
+      </c>
+      <c r="U40" t="n">
+        <v>389028.7</v>
+      </c>
+      <c r="V40" t="n">
+        <v>388733.35</v>
+      </c>
+      <c r="W40" t="n">
+        <v>388824.84</v>
+      </c>
+      <c r="X40" t="n">
+        <v>482724.53</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>412291.75</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>407416.43</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>407676.31</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>142507.79</v>
+        <v>399589.88</v>
       </c>
       <c r="C41" t="n">
-        <v>142655.19</v>
+        <v>399077.64</v>
       </c>
       <c r="D41" t="n">
-        <v>142701.06</v>
+        <v>417524.47</v>
       </c>
       <c r="E41" t="n">
-        <v>142501.45</v>
+        <v>399601.05</v>
       </c>
       <c r="F41" t="n">
-        <v>142476.3</v>
+        <v>399448.52</v>
       </c>
       <c r="G41" t="n">
-        <v>142501</v>
+        <v>620906.54</v>
       </c>
       <c r="H41" t="n">
-        <v>142777.13</v>
+        <v>620406.23</v>
       </c>
       <c r="I41" t="n">
-        <v>142543.69</v>
+        <v>620111.0600000001</v>
       </c>
       <c r="J41" t="n">
-        <v>142829.63</v>
+        <v>620452.08</v>
       </c>
       <c r="K41" t="n">
-        <v>133832.41</v>
+        <v>620165.15</v>
       </c>
       <c r="L41" t="n">
-        <v>153727.66</v>
+        <v>620994.49</v>
       </c>
       <c r="M41" t="n">
-        <v>153557.85</v>
+        <v>620460.3</v>
+      </c>
+      <c r="N41" t="n">
+        <v>621216.38</v>
+      </c>
+      <c r="O41" t="n">
+        <v>620550.92</v>
+      </c>
+      <c r="P41" t="n">
+        <v>620113.63</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>620899.6800000001</v>
+      </c>
+      <c r="R41" t="n">
+        <v>620200.47</v>
+      </c>
+      <c r="S41" t="n">
+        <v>620928.35</v>
+      </c>
+      <c r="T41" t="n">
+        <v>625238</v>
+      </c>
+      <c r="U41" t="n">
+        <v>620072.04</v>
+      </c>
+      <c r="V41" t="n">
+        <v>619938.29</v>
+      </c>
+      <c r="W41" t="n">
+        <v>620917.9399999999</v>
+      </c>
+      <c r="X41" t="n">
+        <v>621227.5</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>621020</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>620383.8</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>620601.79</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Quinquela Acciones</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>320189.3</v>
+        <v>153557.85</v>
       </c>
       <c r="C42" t="n">
-        <v>319994.27</v>
+        <v>178738.94</v>
       </c>
       <c r="D42" t="n">
-        <v>320451.4</v>
+        <v>186646.86</v>
       </c>
       <c r="E42" t="n">
-        <v>320322.24</v>
+        <v>178876.85</v>
       </c>
       <c r="F42" t="n">
-        <v>320580.21</v>
+        <v>186663.26</v>
       </c>
       <c r="G42" t="n">
-        <v>320491.89</v>
+        <v>272692.8</v>
       </c>
       <c r="H42" t="n">
-        <v>319891.55</v>
+        <v>272863.94</v>
       </c>
       <c r="I42" t="n">
-        <v>320157.72</v>
+        <v>272653.83</v>
       </c>
       <c r="J42" t="n">
-        <v>319942.86</v>
+        <v>279612.9</v>
       </c>
       <c r="K42" t="n">
-        <v>320495.12</v>
+        <v>282754.73</v>
       </c>
       <c r="L42" t="n">
-        <v>320546.99</v>
+        <v>292507.89</v>
       </c>
       <c r="M42" t="n">
-        <v>320147.97</v>
+        <v>297767.95</v>
+      </c>
+      <c r="N42" t="n">
+        <v>303959.39</v>
+      </c>
+      <c r="O42" t="n">
+        <v>303566.29</v>
+      </c>
+      <c r="P42" t="n">
+        <v>268933.9</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>333916.72</v>
+      </c>
+      <c r="R42" t="n">
+        <v>333591.7</v>
+      </c>
+      <c r="S42" t="n">
+        <v>333673.87</v>
+      </c>
+      <c r="T42" t="n">
+        <v>336153.62</v>
+      </c>
+      <c r="U42" t="n">
+        <v>357397.53</v>
+      </c>
+      <c r="V42" t="n">
+        <v>357611.23</v>
+      </c>
+      <c r="W42" t="n">
+        <v>375408.48</v>
+      </c>
+      <c r="X42" t="n">
+        <v>375680.33</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>357499.08</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>349891.02</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>349437.18</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t>Quinquela Acciones</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>229972.21</v>
+        <v>320147.97</v>
       </c>
       <c r="C43" t="n">
-        <v>229555.44</v>
+        <v>320122.57</v>
       </c>
       <c r="D43" t="n">
-        <v>216429.54</v>
+        <v>334292.44</v>
       </c>
       <c r="E43" t="n">
-        <v>212345.78</v>
+        <v>319830.17</v>
       </c>
       <c r="F43" t="n">
-        <v>229473.11</v>
+        <v>320289.53</v>
       </c>
       <c r="G43" t="n">
-        <v>231945.46</v>
+        <v>320376.45</v>
       </c>
       <c r="H43" t="n">
-        <v>232586.79</v>
+        <v>320425.89</v>
       </c>
       <c r="I43" t="n">
-        <v>232273.67</v>
+        <v>320556.94</v>
       </c>
       <c r="J43" t="n">
-        <v>232510.93</v>
+        <v>319984.14</v>
       </c>
       <c r="K43" t="n">
-        <v>232695.5</v>
+        <v>320247.23</v>
       </c>
       <c r="L43" t="n">
-        <v>232609.22</v>
+        <v>319938.87</v>
       </c>
       <c r="M43" t="n">
-        <v>225857.33</v>
+        <v>319901.89</v>
+      </c>
+      <c r="N43" t="n">
+        <v>319939.78</v>
+      </c>
+      <c r="O43" t="n">
+        <v>279852.27</v>
+      </c>
+      <c r="P43" t="n">
+        <v>258487.43</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>258126.16</v>
+      </c>
+      <c r="R43" t="n">
+        <v>258438.75</v>
+      </c>
+      <c r="S43" t="n">
+        <v>258034.53</v>
+      </c>
+      <c r="T43" t="n">
+        <v>258389.85</v>
+      </c>
+      <c r="U43" t="n">
+        <v>258180.57</v>
+      </c>
+      <c r="V43" t="n">
+        <v>288200.04</v>
+      </c>
+      <c r="W43" t="n">
+        <v>316034.06</v>
+      </c>
+      <c r="X43" t="n">
+        <v>316125.85</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>315988.44</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>375653.44</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>375666.91</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>SBS Acciones Argentina</t>
+          <t>Rofex 20 Renta Variable</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1061365.07</v>
+        <v>225857.33</v>
       </c>
       <c r="C44" t="n">
-        <v>1061127.24</v>
+        <v>213721.03</v>
       </c>
       <c r="D44" t="n">
-        <v>1060780.75</v>
+        <v>223209.53</v>
       </c>
       <c r="E44" t="n">
-        <v>1059729.42</v>
+        <v>216333.38</v>
       </c>
       <c r="F44" t="n">
-        <v>1059542.95</v>
+        <v>213189.26</v>
       </c>
       <c r="G44" t="n">
-        <v>1060798.98</v>
+        <v>232348.39</v>
       </c>
       <c r="H44" t="n">
-        <v>1061010.6</v>
+        <v>232652.59</v>
       </c>
       <c r="I44" t="n">
-        <v>1061198.91</v>
+        <v>232466.28</v>
       </c>
       <c r="J44" t="n">
-        <v>1059931.88</v>
+        <v>232518.06</v>
       </c>
       <c r="K44" t="n">
-        <v>1059936.66</v>
+        <v>232232.89</v>
       </c>
       <c r="L44" t="n">
-        <v>1015447.94</v>
+        <v>230035.47</v>
       </c>
       <c r="M44" t="n">
-        <v>1015403.06</v>
+        <v>218863.13</v>
+      </c>
+      <c r="N44" t="n">
+        <v>215313.95</v>
+      </c>
+      <c r="O44" t="n">
+        <v>217108.78</v>
+      </c>
+      <c r="P44" t="n">
+        <v>232401.14</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>222733.6</v>
+      </c>
+      <c r="R44" t="n">
+        <v>222886.65</v>
+      </c>
+      <c r="S44" t="n">
+        <v>223075.55</v>
+      </c>
+      <c r="T44" t="n">
+        <v>245915.13</v>
+      </c>
+      <c r="U44" t="n">
+        <v>244140.87</v>
+      </c>
+      <c r="V44" t="n">
+        <v>240683.86</v>
+      </c>
+      <c r="W44" t="n">
+        <v>240470.14</v>
+      </c>
+      <c r="X44" t="n">
+        <v>269006.6</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>269553.79</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>269254.71</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>269558.55</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Schroeder RV</t>
+          <t>SBS Acciones Argentina</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2507588.44</v>
+        <v>1015403.06</v>
       </c>
       <c r="C45" t="n">
-        <v>2506691.17</v>
+        <v>1016422.64</v>
       </c>
       <c r="D45" t="n">
-        <v>2505899.29</v>
+        <v>1061345.72</v>
       </c>
       <c r="E45" t="n">
-        <v>2508220.54</v>
+        <v>1015537.53</v>
       </c>
       <c r="F45" t="n">
-        <v>2505883.93</v>
+        <v>1111276.67</v>
       </c>
       <c r="G45" t="n">
-        <v>2501389.44</v>
+        <v>1174881.47</v>
       </c>
       <c r="H45" t="n">
-        <v>2495781.87</v>
+        <v>1174819.05</v>
       </c>
       <c r="I45" t="n">
-        <v>2505831.99</v>
+        <v>1233253.51</v>
       </c>
       <c r="J45" t="n">
-        <v>2454786.01</v>
+        <v>1311898.52</v>
       </c>
       <c r="K45" t="n">
-        <v>2455935.89</v>
+        <v>1352247.99</v>
       </c>
       <c r="L45" t="n">
-        <v>2326184.77</v>
+        <v>1351630.12</v>
       </c>
       <c r="M45" t="n">
-        <v>2069764.94</v>
+        <v>1489012.53</v>
+      </c>
+      <c r="N45" t="n">
+        <v>1487962.58</v>
+      </c>
+      <c r="O45" t="n">
+        <v>1489664.02</v>
+      </c>
+      <c r="P45" t="n">
+        <v>1254824.67</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>1254284.78</v>
+      </c>
+      <c r="R45" t="n">
+        <v>1255330.54</v>
+      </c>
+      <c r="S45" t="n">
+        <v>1254850.13</v>
+      </c>
+      <c r="T45" t="n">
+        <v>1095625.59</v>
+      </c>
+      <c r="U45" t="n">
+        <v>880874.67</v>
+      </c>
+      <c r="V45" t="n">
+        <v>954641.88</v>
+      </c>
+      <c r="W45" t="n">
+        <v>954863.24</v>
+      </c>
+      <c r="X45" t="n">
+        <v>953753.22</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>919169.09</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>941988.54</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>942650.64</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>Schroeder RV</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1507953.08</v>
+        <v>2069764.94</v>
       </c>
       <c r="C46" t="n">
-        <v>1513462.28</v>
+        <v>1955062.09</v>
       </c>
       <c r="D46" t="n">
-        <v>1509953.49</v>
-      </c>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
+        <v>1886211.23</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1805626.46</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1802919.2</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1803372.46</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1803256.09</v>
+      </c>
+      <c r="I46" t="n">
+        <v>1804031.96</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1866432.7</v>
+      </c>
+      <c r="K46" t="n">
+        <v>1867767.77</v>
+      </c>
+      <c r="L46" t="n">
+        <v>1866899.3</v>
+      </c>
+      <c r="M46" t="n">
+        <v>2002602.55</v>
+      </c>
+      <c r="N46" t="n">
+        <v>2005207.04</v>
+      </c>
+      <c r="O46" t="n">
+        <v>2003560.9</v>
+      </c>
+      <c r="P46" t="n">
+        <v>2002172.82</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>2007970.21</v>
+      </c>
+      <c r="R46" t="n">
+        <v>2002444.67</v>
+      </c>
+      <c r="S46" t="n">
+        <v>2004348.35</v>
+      </c>
+      <c r="T46" t="n">
+        <v>2004684.75</v>
+      </c>
+      <c r="U46" t="n">
+        <v>2004484.09</v>
+      </c>
+      <c r="V46" t="n">
+        <v>2004173.55</v>
+      </c>
+      <c r="W46" t="n">
+        <v>2003307.04</v>
+      </c>
+      <c r="X46" t="n">
+        <v>2004906.99</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>2003725.08</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>2004053.99</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>2003794.98</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -2399,40 +4289,82 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>154579.37</v>
+        <v>157044.09</v>
       </c>
       <c r="C47" t="n">
-        <v>154269.06</v>
+        <v>157242.07</v>
       </c>
       <c r="D47" t="n">
-        <v>156535.78</v>
+        <v>162105.57</v>
       </c>
       <c r="E47" t="n">
-        <v>158187.86</v>
+        <v>157842.63</v>
       </c>
       <c r="F47" t="n">
-        <v>156743.29</v>
+        <v>153769.86</v>
       </c>
       <c r="G47" t="n">
-        <v>156175.84</v>
+        <v>154442.9</v>
       </c>
       <c r="H47" t="n">
-        <v>153891.89</v>
+        <v>155660.57</v>
       </c>
       <c r="I47" t="n">
-        <v>156993.69</v>
+        <v>156812.22</v>
       </c>
       <c r="J47" t="n">
-        <v>157965.71</v>
+        <v>156668.86</v>
       </c>
       <c r="K47" t="n">
-        <v>156382.17</v>
+        <v>156646.79</v>
       </c>
       <c r="L47" t="n">
-        <v>155994.77</v>
+        <v>157394.24</v>
       </c>
       <c r="M47" t="n">
-        <v>157044.09</v>
+        <v>156124.39</v>
+      </c>
+      <c r="N47" t="n">
+        <v>154207.91</v>
+      </c>
+      <c r="O47" t="n">
+        <v>155109.21</v>
+      </c>
+      <c r="P47" t="n">
+        <v>153375.7</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>157008.48</v>
+      </c>
+      <c r="R47" t="n">
+        <v>157646.54</v>
+      </c>
+      <c r="S47" t="n">
+        <v>155782.07</v>
+      </c>
+      <c r="T47" t="n">
+        <v>156985.65</v>
+      </c>
+      <c r="U47" t="n">
+        <v>153148.54</v>
+      </c>
+      <c r="V47" t="n">
+        <v>157831.79</v>
+      </c>
+      <c r="W47" t="n">
+        <v>158415.97</v>
+      </c>
+      <c r="X47" t="n">
+        <v>157160.04</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>158969.82</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>153344.39</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>155380.1</v>
       </c>
     </row>
     <row r="48">
@@ -2442,40 +4374,82 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>319272.67</v>
+        <v>319291.99</v>
       </c>
       <c r="C48" t="n">
-        <v>320424.99</v>
+        <v>320159.25</v>
       </c>
       <c r="D48" t="n">
-        <v>319870.37</v>
+        <v>334540.07</v>
       </c>
       <c r="E48" t="n">
-        <v>319281.8</v>
+        <v>319014.75</v>
       </c>
       <c r="F48" t="n">
-        <v>320602</v>
+        <v>319567.6</v>
       </c>
       <c r="G48" t="n">
-        <v>319645.8</v>
+        <v>319345.89</v>
       </c>
       <c r="H48" t="n">
-        <v>319890.45</v>
+        <v>320904.24</v>
       </c>
       <c r="I48" t="n">
-        <v>319230.37</v>
+        <v>320112.35</v>
       </c>
       <c r="J48" t="n">
-        <v>320356.95</v>
+        <v>318998.84</v>
       </c>
       <c r="K48" t="n">
-        <v>318684.52</v>
+        <v>320836.42</v>
       </c>
       <c r="L48" t="n">
-        <v>320373.82</v>
+        <v>319738.82</v>
       </c>
       <c r="M48" t="n">
-        <v>319291.99</v>
+        <v>319922.23</v>
+      </c>
+      <c r="N48" t="n">
+        <v>320303.62</v>
+      </c>
+      <c r="O48" t="n">
+        <v>318793.08</v>
+      </c>
+      <c r="P48" t="n">
+        <v>320940.31</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>320040.98</v>
+      </c>
+      <c r="R48" t="n">
+        <v>320652.34</v>
+      </c>
+      <c r="S48" t="n">
+        <v>319076.26</v>
+      </c>
+      <c r="T48" t="n">
+        <v>319066.89</v>
+      </c>
+      <c r="U48" t="n">
+        <v>319585.7</v>
+      </c>
+      <c r="V48" t="n">
+        <v>321084.61</v>
+      </c>
+      <c r="W48" t="n">
+        <v>319345.52</v>
+      </c>
+      <c r="X48" t="n">
+        <v>320128.29</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>320648.98</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>239670.53</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>238529.2</v>
       </c>
     </row>
     <row r="49">
@@ -2485,151 +4459,252 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>114607.64</v>
+        <v>131117.95</v>
       </c>
       <c r="C49" t="n">
-        <v>114605.83</v>
+        <v>131205.56</v>
       </c>
       <c r="D49" t="n">
-        <v>114365.76</v>
+        <v>137024.97</v>
       </c>
       <c r="E49" t="n">
-        <v>131282.2</v>
+        <v>131239.2</v>
       </c>
       <c r="F49" t="n">
-        <v>131108.32</v>
+        <v>131243.3</v>
       </c>
       <c r="G49" t="n">
-        <v>131159.55</v>
+        <v>144822.16</v>
       </c>
       <c r="H49" t="n">
-        <v>131210.88</v>
+        <v>144757.93</v>
       </c>
       <c r="I49" t="n">
-        <v>131032.6</v>
+        <v>144724.84</v>
       </c>
       <c r="J49" t="n">
-        <v>131137.68</v>
+        <v>144810.59</v>
       </c>
       <c r="K49" t="n">
-        <v>131117.5</v>
+        <v>144628.29</v>
       </c>
       <c r="L49" t="n">
-        <v>131257.68</v>
+        <v>144683.8</v>
       </c>
       <c r="M49" t="n">
-        <v>131117.95</v>
+        <v>144656.23</v>
+      </c>
+      <c r="N49" t="n">
+        <v>144591.96</v>
+      </c>
+      <c r="O49" t="n">
+        <v>144682.56</v>
+      </c>
+      <c r="P49" t="n">
+        <v>144602.2</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>159731.55</v>
+      </c>
+      <c r="R49" t="n">
+        <v>159742.9</v>
+      </c>
+      <c r="S49" t="n">
+        <v>159716.7</v>
+      </c>
+      <c r="T49" t="n">
+        <v>160843.54</v>
+      </c>
+      <c r="U49" t="n">
+        <v>159683.54</v>
+      </c>
+      <c r="V49" t="n">
+        <v>171468.2</v>
+      </c>
+      <c r="W49" t="n">
+        <v>171378.02</v>
+      </c>
+      <c r="X49" t="n">
+        <v>171355.08</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>171455.95</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>179266.45</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>179185.74</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Toronto trust Argy</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>189731.39</v>
+        <v>448459.08</v>
       </c>
       <c r="C50" t="n">
-        <v>189512.06</v>
+        <v>445405.65</v>
       </c>
       <c r="D50" t="n">
-        <v>189693.09</v>
-      </c>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
+        <v>459764.52</v>
+      </c>
+      <c r="E50" t="n">
+        <v>433977.07</v>
+      </c>
+      <c r="F50" t="n">
+        <v>442081.99</v>
+      </c>
+      <c r="G50" t="n">
+        <v>455628.65</v>
+      </c>
+      <c r="H50" t="n">
+        <v>441633.34</v>
+      </c>
+      <c r="I50" t="n">
+        <v>446660.21</v>
+      </c>
+      <c r="J50" t="n">
+        <v>460165.57</v>
+      </c>
+      <c r="K50" t="n">
+        <v>462689.24</v>
+      </c>
+      <c r="L50" t="n">
+        <v>462778.7</v>
+      </c>
+      <c r="M50" t="n">
+        <v>481247.1</v>
+      </c>
+      <c r="N50" t="n">
+        <v>481441.08</v>
+      </c>
+      <c r="O50" t="n">
+        <v>476677.22</v>
+      </c>
+      <c r="P50" t="n">
+        <v>475356.93</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>473797.37</v>
+      </c>
+      <c r="R50" t="n">
+        <v>480170.74</v>
+      </c>
+      <c r="S50" t="n">
+        <v>480592.23</v>
+      </c>
+      <c r="T50" t="n">
+        <v>475420.09</v>
+      </c>
+      <c r="U50" t="n">
+        <v>451318.88</v>
+      </c>
+      <c r="V50" t="n">
+        <v>466120.77</v>
+      </c>
+      <c r="W50" t="n">
+        <v>475098.86</v>
+      </c>
+      <c r="X50" t="n">
+        <v>485961.49</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>475976.77</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>478867.2</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>477138.7</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>490863.72</v>
+        <v>21077576.56</v>
       </c>
       <c r="C51" t="n">
-        <v>495110.27</v>
+        <v>20934065.77</v>
       </c>
       <c r="D51" t="n">
-        <v>500055.58</v>
+        <v>21608932.6</v>
       </c>
       <c r="E51" t="n">
-        <v>490741.81</v>
+        <v>20396922.17</v>
       </c>
       <c r="F51" t="n">
-        <v>492087.6</v>
+        <v>20777853.31</v>
       </c>
       <c r="G51" t="n">
-        <v>496244.7</v>
+        <v>21414546.56</v>
       </c>
       <c r="H51" t="n">
-        <v>485577.18</v>
+        <v>20315133.78</v>
       </c>
       <c r="I51" t="n">
-        <v>482783.52</v>
+        <v>20546369.55</v>
       </c>
       <c r="J51" t="n">
-        <v>475290.24</v>
+        <v>21167616.41</v>
       </c>
       <c r="K51" t="n">
-        <v>464058.1</v>
+        <v>21283705.15</v>
       </c>
       <c r="L51" t="n">
-        <v>453804.74</v>
+        <v>21287820.41</v>
       </c>
       <c r="M51" t="n">
-        <v>448459.08</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>total</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>24052322.06</v>
-      </c>
-      <c r="C52" t="n">
-        <v>19309300.41</v>
-      </c>
-      <c r="D52" t="n">
-        <v>24502723.66</v>
-      </c>
-      <c r="E52" t="n">
-        <v>23064864.98</v>
-      </c>
-      <c r="F52" t="n">
-        <v>23128117.26</v>
-      </c>
-      <c r="G52" t="n">
-        <v>23323501.08</v>
-      </c>
-      <c r="H52" t="n">
-        <v>22822127.52</v>
-      </c>
-      <c r="I52" t="n">
-        <v>22690825.28</v>
-      </c>
-      <c r="J52" t="n">
-        <v>22338641.16</v>
-      </c>
-      <c r="K52" t="n">
-        <v>21810730.72</v>
-      </c>
-      <c r="L52" t="n">
-        <v>21328822.59</v>
-      </c>
-      <c r="M52" t="n">
-        <v>21077576.56</v>
+        <v>21656119.68</v>
+      </c>
+      <c r="N51" t="n">
+        <v>21664848.58</v>
+      </c>
+      <c r="O51" t="n">
+        <v>21450474.9</v>
+      </c>
+      <c r="P51" t="n">
+        <v>21391061.86</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>21320881.56</v>
+      </c>
+      <c r="R51" t="n">
+        <v>21607683.09</v>
+      </c>
+      <c r="S51" t="n">
+        <v>21626650.57</v>
+      </c>
+      <c r="T51" t="n">
+        <v>21393904.13</v>
+      </c>
+      <c r="U51" t="n">
+        <v>20760668.31</v>
+      </c>
+      <c r="V51" t="n">
+        <v>21441555.55</v>
+      </c>
+      <c r="W51" t="n">
+        <v>21854547.34</v>
+      </c>
+      <c r="X51" t="n">
+        <v>22354228.61</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>21894931.47</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>22027891.22</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>21948380.27</v>
       </c>
     </row>
   </sheetData>
